--- a/generated_data/Oct2025_Rollover_Data.xlsx
+++ b/generated_data/Oct2025_Rollover_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="248">
   <si>
     <t>Sectoral Index</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>M_o_M%</t>
+  </si>
+  <si>
+    <t>Next_M_o_M%</t>
   </si>
   <si>
     <t>NIFTY Airlines/Logistics</t>
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L216"/>
+  <dimension ref="A1:M216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -1222,29 +1225,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1281,13 +1285,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>16956</v>
@@ -1319,13 +1326,16 @@
       <c r="L6">
         <v>-5.81</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>28.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>187.26</v>
@@ -1357,13 +1367,16 @@
       <c r="L7">
         <v>16.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>-18.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>541.2</v>
@@ -1395,13 +1408,16 @@
       <c r="L8">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>475.8</v>
@@ -1433,13 +1449,16 @@
       <c r="L9">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>-13.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>721.7</v>
@@ -1471,13 +1490,16 @@
       <c r="L10">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>-6.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>695.5</v>
@@ -1509,13 +1531,16 @@
       <c r="L11">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>892.8</v>
@@ -1547,13 +1572,16 @@
       <c r="L12">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>-6.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>140.1</v>
@@ -1585,13 +1613,16 @@
       <c r="L13">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1308.1</v>
@@ -1623,13 +1654,16 @@
       <c r="L14">
         <v>7.89</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>38540</v>
@@ -1661,13 +1695,16 @@
       <c r="L15">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>-7.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>7002.5</v>
@@ -1699,13 +1736,16 @@
       <c r="L16">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>380.7</v>
@@ -1737,13 +1777,16 @@
       <c r="L17">
         <v>-2.57</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>5609.5</v>
@@ -1775,13 +1818,16 @@
       <c r="L18">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>16311</v>
@@ -1813,13 +1859,16 @@
       <c r="L19">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>-2.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>106.98</v>
@@ -1851,13 +1900,16 @@
       <c r="L20">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>484.35</v>
@@ -1889,13 +1941,16 @@
       <c r="L21">
         <v>17.63</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>3125.5</v>
@@ -1927,13 +1982,16 @@
       <c r="L22">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>-7.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>3562</v>
@@ -1965,13 +2023,16 @@
       <c r="L23">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>-3.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>1201.2</v>
@@ -2003,13 +2064,16 @@
       <c r="L24">
         <v>-7.51</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>5809</v>
@@ -2041,13 +2105,16 @@
       <c r="L25">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>879.9</v>
@@ -2079,13 +2146,16 @@
       <c r="L26">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>799.75</v>
@@ -2117,13 +2187,16 @@
       <c r="L27">
         <v>8.73</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>8526.5</v>
@@ -2155,13 +2228,16 @@
       <c r="L28">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>-16.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>2509.3</v>
@@ -2193,13 +2269,16 @@
       <c r="L29">
         <v>6.78</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>1450.2</v>
@@ -2231,13 +2310,16 @@
       <c r="L30">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>1951.6</v>
@@ -2269,13 +2351,16 @@
       <c r="L31">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>290.3</v>
@@ -2307,13 +2392,16 @@
       <c r="L32">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>-8.699999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>15372</v>
@@ -2345,13 +2433,16 @@
       <c r="L33">
         <v>-5.82</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>-6.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>1480.6</v>
@@ -2383,13 +2474,16 @@
       <c r="L34">
         <v>-1.42</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>-4.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>504.9</v>
@@ -2421,13 +2515,16 @@
       <c r="L35">
         <v>11.14</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>-4.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>565.3</v>
@@ -2459,13 +2556,16 @@
       <c r="L36">
         <v>12.54</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>1492</v>
@@ -2497,13 +2597,16 @@
       <c r="L37">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>7510</v>
@@ -2535,13 +2638,16 @@
       <c r="L38">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>3814.2</v>
@@ -2573,13 +2679,16 @@
       <c r="L39">
         <v>-9.609999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>-10.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>3717</v>
@@ -2611,13 +2720,16 @@
       <c r="L40">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41">
         <v>1428.4</v>
@@ -2649,13 +2761,16 @@
       <c r="L41">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>-5.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>1517.6</v>
@@ -2687,13 +2802,16 @@
       <c r="L42">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>-3.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43">
         <v>413.55</v>
@@ -2725,13 +2843,16 @@
       <c r="L43">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <v>4724.5</v>
@@ -2763,13 +2884,16 @@
       <c r="L44">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <v>2780.4</v>
@@ -2801,13 +2925,16 @@
       <c r="L45">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>-4.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C46">
         <v>1417.9</v>
@@ -2839,13 +2966,16 @@
       <c r="L46">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47">
         <v>3587.2</v>
@@ -2877,13 +3007,16 @@
       <c r="L47">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>-3.87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>921.2</v>
@@ -2915,13 +3048,16 @@
       <c r="L48">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>1004.2</v>
@@ -2953,13 +3089,16 @@
       <c r="L49">
         <v>-2.21</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50">
         <v>340.65</v>
@@ -2991,13 +3130,16 @@
       <c r="L50">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51">
         <v>391.4</v>
@@ -3029,13 +3171,16 @@
       <c r="L51">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>-5.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <v>536.35</v>
@@ -3067,13 +3212,16 @@
       <c r="L52">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>-11.14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <v>84.63</v>
@@ -3105,13 +3253,16 @@
       <c r="L53">
         <v>-1.96</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>-8.74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>339.15</v>
@@ -3143,13 +3294,16 @@
       <c r="L54">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>-4.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>288.25</v>
@@ -3181,13 +3335,16 @@
       <c r="L55">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>-5.13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56">
         <v>56.22</v>
@@ -3219,13 +3376,16 @@
       <c r="L56">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>-3.61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C57">
         <v>398.65</v>
@@ -3257,13 +3417,16 @@
       <c r="L57">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>-4.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>1277.2</v>
@@ -3295,13 +3458,16 @@
       <c r="L58">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>5861</v>
@@ -3333,13 +3499,16 @@
       <c r="L59">
         <v>-2.17</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>2232.7</v>
@@ -3371,13 +3540,16 @@
       <c r="L60">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>-2.91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <v>503.4</v>
@@ -3409,13 +3581,16 @@
       <c r="L61">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62">
         <v>1115.5</v>
@@ -3447,13 +3622,16 @@
       <c r="L62">
         <v>-4.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>2497.1</v>
@@ -3485,13 +3663,16 @@
       <c r="L63">
         <v>-0.6899999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>417.9</v>
@@ -3523,13 +3704,16 @@
       <c r="L64">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>600.75</v>
@@ -3561,13 +3745,16 @@
       <c r="L65">
         <v>-2.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>-1.28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>720.05</v>
@@ -3599,13 +3786,16 @@
       <c r="L66">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67">
         <v>1271</v>
@@ -3637,13 +3827,16 @@
       <c r="L67">
         <v>10.24</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>593.65</v>
@@ -3675,13 +3868,16 @@
       <c r="L68">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>1168.9</v>
@@ -3713,13 +3909,16 @@
       <c r="L69">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>4725.4</v>
@@ -3751,13 +3950,16 @@
       <c r="L70">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>-10.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71">
         <v>1351.8</v>
@@ -3789,13 +3991,16 @@
       <c r="L71">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72">
         <v>454.15</v>
@@ -3827,13 +4032,16 @@
       <c r="L72">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73">
         <v>1171.8</v>
@@ -3865,13 +4073,16 @@
       <c r="L73">
         <v>14.43</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74">
         <v>312.6</v>
@@ -3903,13 +4114,16 @@
       <c r="L74">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75">
         <v>2537.9</v>
@@ -3941,13 +4155,16 @@
       <c r="L75">
         <v>19.01</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76">
         <v>2140.2</v>
@@ -3979,13 +4196,16 @@
       <c r="L76">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>-5.14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77">
         <v>1072.75</v>
@@ -4017,13 +4237,16 @@
       <c r="L77">
         <v>7.39</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>-8.07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C78">
         <v>2419.7</v>
@@ -4055,13 +4278,16 @@
       <c r="L78">
         <v>18.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C79">
         <v>1632.8</v>
@@ -4093,13 +4319,16 @@
       <c r="L79">
         <v>11.94</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80">
         <v>1723.2</v>
@@ -4131,13 +4360,16 @@
       <c r="L80">
         <v>6.98</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81">
         <v>5646.5</v>
@@ -4169,13 +4401,16 @@
       <c r="L81">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>-5.49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82">
         <v>747</v>
@@ -4207,13 +4442,16 @@
       <c r="L82">
         <v>-1.25</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C83">
         <v>2019</v>
@@ -4245,13 +4483,16 @@
       <c r="L83">
         <v>6.84</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84">
         <v>600.5</v>
@@ -4283,13 +4524,16 @@
       <c r="L84">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85">
         <v>147.52</v>
@@ -4321,13 +4565,16 @@
       <c r="L85">
         <v>5.98</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>-4.93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86">
         <v>513.8</v>
@@ -4359,13 +4606,16 @@
       <c r="L86">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87">
         <v>307.95</v>
@@ -4397,13 +4647,16 @@
       <c r="L87">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>-2.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88">
         <v>1174.8</v>
@@ -4435,13 +4688,16 @@
       <c r="L88">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89">
         <v>585.9</v>
@@ -4473,13 +4729,16 @@
       <c r="L89">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>-6.45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90">
         <v>899.9</v>
@@ -4511,13 +4770,16 @@
       <c r="L90">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91">
         <v>268.35</v>
@@ -4549,13 +4811,16 @@
       <c r="L91">
         <v>7.65</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92">
         <v>276.35</v>
@@ -4587,13 +4852,16 @@
       <c r="L92">
         <v>-1.58</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C93">
         <v>9116.5</v>
@@ -4625,13 +4893,16 @@
       <c r="L93">
         <v>16.94</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94">
         <v>1524.1</v>
@@ -4663,13 +4934,16 @@
       <c r="L94">
         <v>-3.29</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C95">
         <v>3182</v>
@@ -4701,13 +4975,16 @@
       <c r="L95">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96">
         <v>7442.5</v>
@@ -4739,13 +5016,16 @@
       <c r="L96">
         <v>18.04</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>-6.32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97">
         <v>1309.7</v>
@@ -4777,13 +5057,16 @@
       <c r="L97">
         <v>16.54</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>-5.21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98">
         <v>394.6</v>
@@ -4815,13 +5098,16 @@
       <c r="L98">
         <v>-3.81</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>-8.41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99">
         <v>933.5</v>
@@ -4853,13 +5139,16 @@
       <c r="L99">
         <v>8.09</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>-5.58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100">
         <v>1775</v>
@@ -4891,13 +5180,16 @@
       <c r="L100">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101">
         <v>368.95</v>
@@ -4929,13 +5221,16 @@
       <c r="L101">
         <v>-1.05</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101">
+        <v>-4.66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102">
         <v>905.75</v>
@@ -4967,13 +5262,16 @@
       <c r="L102">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>-3.57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C103">
         <v>1936.8</v>
@@ -5005,13 +5303,16 @@
       <c r="L103">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C104">
         <v>723.7</v>
@@ -5043,13 +5344,16 @@
       <c r="L104">
         <v>17.46</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C105">
         <v>7880.5</v>
@@ -5081,13 +5385,16 @@
       <c r="L105">
         <v>6.36</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105">
+        <v>-6.98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C106">
         <v>1057</v>
@@ -5119,13 +5426,16 @@
       <c r="L106">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106">
+        <v>-12.92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C107">
         <v>1179.7</v>
@@ -5157,13 +5467,16 @@
       <c r="L107">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107">
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C108">
         <v>657.5</v>
@@ -5195,13 +5508,16 @@
       <c r="L108">
         <v>5.56</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108">
+        <v>-2.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C109">
         <v>3985.2</v>
@@ -5233,13 +5549,16 @@
       <c r="L109">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109">
+        <v>-2.28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C110">
         <v>1809.8</v>
@@ -5271,13 +5590,16 @@
       <c r="L110">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C111">
         <v>1187.7</v>
@@ -5309,13 +5631,16 @@
       <c r="L111">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C112">
         <v>1522.1</v>
@@ -5347,13 +5672,16 @@
       <c r="L112">
         <v>9.890000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C113">
         <v>1500.2</v>
@@ -5385,13 +5713,16 @@
       <c r="L113">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C114">
         <v>1190.3</v>
@@ -5423,13 +5754,16 @@
       <c r="L114">
         <v>8.44</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114">
+        <v>-1.54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C115">
         <v>5596</v>
@@ -5461,13 +5795,16 @@
       <c r="L115">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C116">
         <v>2830.9</v>
@@ -5499,13 +5836,16 @@
       <c r="L116">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C117">
         <v>8601.5</v>
@@ -5537,13 +5877,16 @@
       <c r="L117">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117">
+        <v>-6.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C118">
         <v>5826.9</v>
@@ -5575,13 +5918,16 @@
       <c r="L118">
         <v>20.83</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C119">
         <v>5545</v>
@@ -5613,13 +5959,16 @@
       <c r="L119">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119">
+        <v>-6.87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C120">
         <v>3057.9</v>
@@ -5651,13 +6000,16 @@
       <c r="L120">
         <v>5.87</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C121">
         <v>1447.4</v>
@@ -5689,13 +6041,16 @@
       <c r="L121">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C122">
         <v>242.38</v>
@@ -5727,13 +6082,16 @@
       <c r="L122">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C123">
         <v>242.38</v>
@@ -5765,13 +6123,16 @@
       <c r="L123">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C124">
         <v>5175.5</v>
@@ -5803,13 +6164,16 @@
       <c r="L124">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124">
+        <v>-2.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C125">
         <v>722.5</v>
@@ -5841,13 +6205,16 @@
       <c r="L125">
         <v>-2.49</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125">
+        <v>-5.53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126">
         <v>4285.6</v>
@@ -5879,13 +6246,16 @@
       <c r="L126">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C127">
         <v>4063.8</v>
@@ -5917,13 +6287,16 @@
       <c r="L127">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C128">
         <v>3109.7</v>
@@ -5955,13 +6328,16 @@
       <c r="L128">
         <v>-0.62</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C129">
         <v>13853</v>
@@ -5993,13 +6369,16 @@
       <c r="L129">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129">
+        <v>-4.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C130">
         <v>3027.7</v>
@@ -6031,13 +6410,16 @@
       <c r="L130">
         <v>7.23</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130">
+        <v>-7.73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C131">
         <v>554.9</v>
@@ -6069,13 +6451,16 @@
       <c r="L131">
         <v>-2.64</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131">
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C132">
         <v>1777</v>
@@ -6107,13 +6492,16 @@
       <c r="L132">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C133">
         <v>237.34</v>
@@ -6145,13 +6533,16 @@
       <c r="L133">
         <v>-0.47</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C134">
         <v>2128</v>
@@ -6183,13 +6574,16 @@
       <c r="L134">
         <v>-4.45</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134">
+        <v>-5.08</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C135">
         <v>334.6</v>
@@ -6221,13 +6615,16 @@
       <c r="L135">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135">
+        <v>-9.65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C136">
         <v>92.69</v>
@@ -6259,13 +6656,16 @@
       <c r="L136">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C137">
         <v>2932.9</v>
@@ -6297,13 +6697,16 @@
       <c r="L137">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137">
+        <v>-8.390000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C138">
         <v>75.66</v>
@@ -6335,13 +6738,16 @@
       <c r="L138">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138">
+        <v>-6.54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C139">
         <v>741.75</v>
@@ -6373,13 +6779,16 @@
       <c r="L139">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C140">
         <v>3972.8</v>
@@ -6411,13 +6820,16 @@
       <c r="L140">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C141">
         <v>210.61</v>
@@ -6449,13 +6861,16 @@
       <c r="L141">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141">
+        <v>-17.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C142">
         <v>328.85</v>
@@ -6487,13 +6902,16 @@
       <c r="L142">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C143">
         <v>28585</v>
@@ -6525,13 +6943,16 @@
       <c r="L143">
         <v>-2.32</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143">
+        <v>-7.45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C144">
         <v>11931</v>
@@ -6563,13 +6984,16 @@
       <c r="L144">
         <v>-2.38</v>
       </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144">
+        <v>-2.94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C145">
         <v>702.6</v>
@@ -6601,13 +7025,16 @@
       <c r="L145">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C146">
         <v>2494.4</v>
@@ -6639,13 +7066,16 @@
       <c r="L146">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146">
+        <v>-6.47</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C147">
         <v>848.95</v>
@@ -6677,13 +7107,16 @@
       <c r="L147">
         <v>11.42</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C148">
         <v>471.2</v>
@@ -6715,13 +7148,16 @@
       <c r="L148">
         <v>-2.33</v>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148">
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C149">
         <v>1073.5</v>
@@ -6753,13 +7189,16 @@
       <c r="L149">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C150">
         <v>1184.2</v>
@@ -6791,13 +7230,16 @@
       <c r="L150">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C151">
         <v>236.76</v>
@@ -6829,13 +7271,16 @@
       <c r="L151">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C152">
         <v>236.76</v>
@@ -6867,13 +7312,16 @@
       <c r="L152">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C153">
         <v>74.63</v>
@@ -6905,13 +7353,16 @@
       <c r="L153">
         <v>-2.25</v>
       </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153">
+        <v>-2.59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C154">
         <v>132.16</v>
@@ -6943,13 +7394,16 @@
       <c r="L154">
         <v>-1.73</v>
       </c>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C155">
         <v>181.81</v>
@@ -6981,13 +7435,16 @@
       <c r="L155">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155">
+        <v>-8.51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C156">
         <v>181.81</v>
@@ -7019,13 +7476,16 @@
       <c r="L156">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156">
+        <v>-8.51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C157">
         <v>502.45</v>
@@ -7057,13 +7517,16 @@
       <c r="L157">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C158">
         <v>178.46</v>
@@ -7095,13 +7558,16 @@
       <c r="L158">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C159">
         <v>452.15</v>
@@ -7133,13 +7599,16 @@
       <c r="L159">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C160">
         <v>210.35</v>
@@ -7171,13 +7640,16 @@
       <c r="L160">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160">
+        <v>-7.37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C161">
         <v>154.52</v>
@@ -7209,13 +7681,16 @@
       <c r="L161">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C162">
         <v>412.75</v>
@@ -7247,13 +7722,16 @@
       <c r="L162">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C163">
         <v>250.54</v>
@@ -7285,13 +7763,16 @@
       <c r="L163">
         <v>4.61</v>
       </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163">
+        <v>-2.07</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B164" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C164">
         <v>277.85</v>
@@ -7323,13 +7804,16 @@
       <c r="L164">
         <v>-0.34</v>
       </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164">
+        <v>-2.05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C165">
         <v>1486.9</v>
@@ -7361,13 +7845,16 @@
       <c r="L165">
         <v>9.01</v>
       </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C166">
         <v>153.3</v>
@@ -7399,13 +7886,16 @@
       <c r="L166">
         <v>9.31</v>
       </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166">
+        <v>-12.13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B167" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C167">
         <v>6842</v>
@@ -7437,13 +7927,16 @@
       <c r="L167">
         <v>-2.98</v>
       </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167">
+        <v>-15.56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C168">
         <v>151.47</v>
@@ -7475,13 +7968,16 @@
       <c r="L168">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="M168">
+        <v>-6.67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C169">
         <v>122.77</v>
@@ -7513,13 +8009,16 @@
       <c r="L169">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="M169">
+        <v>-4.91</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C170">
         <v>110.31</v>
@@ -7551,13 +8050,16 @@
       <c r="L170">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="M170">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C171">
         <v>276.95</v>
@@ -7589,13 +8091,16 @@
       <c r="L171">
         <v>7.12</v>
       </c>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="M171">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B172" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C172">
         <v>141.09</v>
@@ -7627,13 +8132,16 @@
       <c r="L172">
         <v>14.33</v>
       </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="M172">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C173">
         <v>129.98</v>
@@ -7665,13 +8173,16 @@
       <c r="L173">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="M173">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C174">
         <v>852.9</v>
@@ -7703,13 +8214,16 @@
       <c r="L174">
         <v>13.61</v>
       </c>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C175">
         <v>121.13</v>
@@ -7741,13 +8255,16 @@
       <c r="L175">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="M175">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C176">
         <v>930.25</v>
@@ -7779,13 +8296,16 @@
       <c r="L176">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="M176">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C177">
         <v>147.07</v>
@@ -7817,13 +8337,16 @@
       <c r="L177">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="M177">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C178">
         <v>5432</v>
@@ -7855,13 +8378,16 @@
       <c r="L178">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="M178">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C179">
         <v>1099.4</v>
@@ -7893,13 +8419,16 @@
       <c r="L179">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="M179">
+        <v>9.880000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C180">
         <v>365.75</v>
@@ -7931,13 +8460,16 @@
       <c r="L180">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="M180">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C181">
         <v>1568.1</v>
@@ -7969,13 +8501,16 @@
       <c r="L181">
         <v>4.31</v>
       </c>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="M181">
+        <v>-3.86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C182">
         <v>6438.5</v>
@@ -8007,13 +8542,16 @@
       <c r="L182">
         <v>13.16</v>
       </c>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="M182">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C183">
         <v>1289.4</v>
@@ -8045,13 +8583,16 @@
       <c r="L183">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="M183">
+        <v>-4.13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C184">
         <v>1815.1</v>
@@ -8083,13 +8624,16 @@
       <c r="L184">
         <v>-7.05</v>
       </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="M184">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C185">
         <v>959.65</v>
@@ -8121,13 +8665,16 @@
       <c r="L185">
         <v>14</v>
       </c>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="M185">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C186">
         <v>1918.7</v>
@@ -8159,13 +8706,16 @@
       <c r="L186">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="M186">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C187">
         <v>2406.5</v>
@@ -8197,13 +8747,16 @@
       <c r="L187">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="M187">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C188">
         <v>202.1</v>
@@ -8235,13 +8788,16 @@
       <c r="L188">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="189" spans="1:12">
+      <c r="M188">
+        <v>-8.529999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C189">
         <v>1687</v>
@@ -8273,13 +8829,16 @@
       <c r="L189">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="190" spans="1:12">
+      <c r="M189">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B190" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C190">
         <v>3576.5</v>
@@ -8311,13 +8870,16 @@
       <c r="L190">
         <v>-0.74</v>
       </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="M190">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C191">
         <v>1001.25</v>
@@ -8349,13 +8911,16 @@
       <c r="L191">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="M191">
+        <v>-7.27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C192">
         <v>1246.3</v>
@@ -8387,13 +8952,16 @@
       <c r="L192">
         <v>10.14</v>
       </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="M192">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B193" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C193">
         <v>175.62</v>
@@ -8425,13 +8993,16 @@
       <c r="L193">
         <v>8.27</v>
       </c>
-    </row>
-    <row r="194" spans="1:12">
+      <c r="M193">
+        <v>-14.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B194" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C194">
         <v>235.78</v>
@@ -8463,13 +9034,16 @@
       <c r="L194">
         <v>22.21</v>
       </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="M194">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B195" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C195">
         <v>1003.55</v>
@@ -8501,13 +9075,16 @@
       <c r="L195">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="196" spans="1:12">
+      <c r="M195">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B196" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C196">
         <v>1363.1</v>
@@ -8539,13 +9116,16 @@
       <c r="L196">
         <v>1.12</v>
       </c>
-    </row>
-    <row r="197" spans="1:12">
+      <c r="M196">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B197" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C197">
         <v>79.2</v>
@@ -8577,13 +9157,16 @@
       <c r="L197">
         <v>13.52</v>
       </c>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="M197">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C198">
         <v>2160.8</v>
@@ -8615,13 +9198,16 @@
       <c r="L198">
         <v>8.44</v>
       </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="M198">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B199" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C199">
         <v>325.1</v>
@@ -8653,13 +9239,16 @@
       <c r="L199">
         <v>17.26</v>
       </c>
-    </row>
-    <row r="200" spans="1:12">
+      <c r="M199">
+        <v>-5.18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B200" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C200">
         <v>22.73</v>
@@ -8691,13 +9280,16 @@
       <c r="L200">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="201" spans="1:12">
+      <c r="M200">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B201" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C201">
         <v>22.73</v>
@@ -8729,13 +9321,16 @@
       <c r="L201">
         <v>6.96</v>
       </c>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="M201">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B202" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C202">
         <v>774.05</v>
@@ -8767,13 +9362,16 @@
       <c r="L202">
         <v>8.56</v>
       </c>
-    </row>
-    <row r="203" spans="1:12">
+      <c r="M202">
+        <v>-6.81</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C203">
         <v>2296.6</v>
@@ -8805,13 +9403,16 @@
       <c r="L203">
         <v>16.65</v>
       </c>
-    </row>
-    <row r="204" spans="1:12">
+      <c r="M203">
+        <v>-8.82</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B204" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C204">
         <v>225.92</v>
@@ -8843,13 +9444,16 @@
       <c r="L204">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="205" spans="1:12">
+      <c r="M204">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B205" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C205">
         <v>1169</v>
@@ -8881,13 +9485,16 @@
       <c r="L205">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="206" spans="1:12">
+      <c r="M205">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B206" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C206">
         <v>1708.1</v>
@@ -8919,13 +9526,16 @@
       <c r="L206">
         <v>7.96</v>
       </c>
-    </row>
-    <row r="207" spans="1:12">
+      <c r="M206">
+        <v>-4.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B207" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C207">
         <v>1702</v>
@@ -8957,13 +9567,16 @@
       <c r="L207">
         <v>9.42</v>
       </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="M207">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B208" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C208">
         <v>1758.2</v>
@@ -8995,13 +9608,16 @@
       <c r="L208">
         <v>16.43</v>
       </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="M208">
+        <v>-5.82</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B209" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C209">
         <v>4220.9</v>
@@ -9033,13 +9649,16 @@
       <c r="L209">
         <v>-5.69</v>
       </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="M209">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B210" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C210">
         <v>1385.7</v>
@@ -9071,13 +9690,16 @@
       <c r="L210">
         <v>5.84</v>
       </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="M210">
+        <v>-3.88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B211" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C211">
         <v>256.86</v>
@@ -9109,13 +9731,16 @@
       <c r="L211">
         <v>10.53</v>
       </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="M211">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B212" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C212">
         <v>2090.2</v>
@@ -9147,13 +9772,16 @@
       <c r="L212">
         <v>11.28</v>
       </c>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="M212">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B213" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C213">
         <v>9.44</v>
@@ -9185,13 +9813,16 @@
       <c r="L213">
         <v>16.11</v>
       </c>
-    </row>
-    <row r="214" spans="1:12">
+      <c r="M213">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13">
       <c r="A214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B214" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C214">
         <v>9.44</v>
@@ -9223,13 +9854,16 @@
       <c r="L214">
         <v>16.11</v>
       </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="M214">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B215" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C215">
         <v>385.9</v>
@@ -9261,13 +9895,16 @@
       <c r="L215">
         <v>12.54</v>
       </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="M215">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13">
       <c r="A216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B216" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C216">
         <v>40915</v>
@@ -9299,9 +9936,12 @@
       <c r="L216">
         <v>0.57</v>
       </c>
+      <c r="M216">
+        <v>-5.82</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L216">
+  <conditionalFormatting sqref="A6:M216">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -9321,7 +9961,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -9344,29 +9984,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -9403,13 +10044,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>475.8</v>
@@ -9441,13 +10085,16 @@
       <c r="L6">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>-13.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>695.5</v>
@@ -9479,13 +10126,16 @@
       <c r="L7">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>892.8</v>
@@ -9517,13 +10167,16 @@
       <c r="L8">
         <v>2.29</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>-6.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>38540</v>
@@ -9555,13 +10208,16 @@
       <c r="L9">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>-7.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>5609.5</v>
@@ -9593,13 +10249,16 @@
       <c r="L10">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>16311</v>
@@ -9631,13 +10290,16 @@
       <c r="L11">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>-2.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>106.98</v>
@@ -9669,13 +10331,16 @@
       <c r="L12">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>484.35</v>
@@ -9707,13 +10372,16 @@
       <c r="L13">
         <v>17.63</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>3562</v>
@@ -9745,13 +10413,16 @@
       <c r="L14">
         <v>3.59</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>-3.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>879.9</v>
@@ -9783,13 +10454,16 @@
       <c r="L15">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>2509.3</v>
@@ -9821,13 +10495,16 @@
       <c r="L16">
         <v>6.78</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>1450.2</v>
@@ -9859,13 +10536,16 @@
       <c r="L17">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>1951.6</v>
@@ -9897,13 +10577,16 @@
       <c r="L18">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>504.9</v>
@@ -9935,13 +10618,16 @@
       <c r="L19">
         <v>11.14</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>-4.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>565.3</v>
@@ -9973,13 +10659,16 @@
       <c r="L20">
         <v>12.54</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1492</v>
@@ -10011,13 +10700,16 @@
       <c r="L21">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>1517.6</v>
@@ -10049,13 +10741,16 @@
       <c r="L22">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>-3.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>413.55</v>
@@ -10087,13 +10782,16 @@
       <c r="L23">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>1417.9</v>
@@ -10125,13 +10823,16 @@
       <c r="L24">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>3587.2</v>
@@ -10163,13 +10864,16 @@
       <c r="L25">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>-3.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>921.2</v>
@@ -10201,13 +10905,16 @@
       <c r="L26">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>536.35</v>
@@ -10239,13 +10946,16 @@
       <c r="L27">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>-11.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28">
         <v>56.22</v>
@@ -10277,13 +10987,16 @@
       <c r="L28">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>-3.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>398.65</v>
@@ -10315,13 +11028,16 @@
       <c r="L29">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>-4.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30">
         <v>1277.2</v>
@@ -10353,13 +11069,16 @@
       <c r="L30">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>417.9</v>
@@ -10391,13 +11110,16 @@
       <c r="L31">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>720.05</v>
@@ -10429,13 +11151,16 @@
       <c r="L32">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33">
         <v>4725.4</v>
@@ -10467,13 +11192,16 @@
       <c r="L33">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>-10.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34">
         <v>1351.8</v>
@@ -10505,13 +11233,16 @@
       <c r="L34">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35">
         <v>454.15</v>
@@ -10543,13 +11274,16 @@
       <c r="L35">
         <v>2.36</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36">
         <v>1171.8</v>
@@ -10581,13 +11315,16 @@
       <c r="L36">
         <v>14.43</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37">
         <v>312.6</v>
@@ -10619,13 +11356,16 @@
       <c r="L37">
         <v>6.93</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38">
         <v>2537.9</v>
@@ -10657,13 +11397,16 @@
       <c r="L38">
         <v>19.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39">
         <v>2419.7</v>
@@ -10695,13 +11438,16 @@
       <c r="L39">
         <v>18.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40">
         <v>1632.8</v>
@@ -10733,13 +11479,16 @@
       <c r="L40">
         <v>11.94</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41">
         <v>5646.5</v>
@@ -10771,13 +11520,16 @@
       <c r="L41">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>-5.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42">
         <v>2019</v>
@@ -10809,13 +11561,16 @@
       <c r="L42">
         <v>6.84</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43">
         <v>600.5</v>
@@ -10847,13 +11602,16 @@
       <c r="L43">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44">
         <v>147.52</v>
@@ -10885,13 +11643,16 @@
       <c r="L44">
         <v>5.98</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>-4.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45">
         <v>513.8</v>
@@ -10923,13 +11684,16 @@
       <c r="L45">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46">
         <v>307.95</v>
@@ -10961,13 +11725,16 @@
       <c r="L46">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>-2.32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47">
         <v>585.9</v>
@@ -10999,13 +11766,16 @@
       <c r="L47">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>-6.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C48">
         <v>268.35</v>
@@ -11037,13 +11807,16 @@
       <c r="L48">
         <v>7.65</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49">
         <v>933.5</v>
@@ -11075,13 +11848,16 @@
       <c r="L49">
         <v>8.09</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>-5.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50">
         <v>1775</v>
@@ -11113,13 +11889,16 @@
       <c r="L50">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51">
         <v>1936.8</v>
@@ -11151,13 +11930,16 @@
       <c r="L51">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C52">
         <v>1179.7</v>
@@ -11189,13 +11971,16 @@
       <c r="L52">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C53">
         <v>657.5</v>
@@ -11227,13 +12012,16 @@
       <c r="L53">
         <v>5.56</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>-2.35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C54">
         <v>3985.2</v>
@@ -11265,13 +12053,16 @@
       <c r="L54">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>-2.28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55">
         <v>1809.8</v>
@@ -11303,13 +12094,16 @@
       <c r="L55">
         <v>13.75</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56">
         <v>1187.7</v>
@@ -11341,13 +12135,16 @@
       <c r="L56">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57">
         <v>1522.1</v>
@@ -11379,13 +12176,16 @@
       <c r="L57">
         <v>9.890000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C58">
         <v>3057.9</v>
@@ -11417,13 +12217,16 @@
       <c r="L58">
         <v>5.87</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59">
         <v>1447.4</v>
@@ -11455,13 +12258,16 @@
       <c r="L59">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60">
         <v>242.38</v>
@@ -11493,13 +12299,16 @@
       <c r="L60">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C61">
         <v>242.38</v>
@@ -11531,13 +12340,16 @@
       <c r="L61">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C62">
         <v>4285.6</v>
@@ -11569,13 +12381,16 @@
       <c r="L62">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63">
         <v>4063.8</v>
@@ -11607,13 +12422,16 @@
       <c r="L63">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64">
         <v>13853</v>
@@ -11645,13 +12463,16 @@
       <c r="L64">
         <v>3.95</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>-4.23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C65">
         <v>1777</v>
@@ -11683,13 +12504,16 @@
       <c r="L65">
         <v>5.39</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66">
         <v>334.6</v>
@@ -11721,13 +12545,16 @@
       <c r="L66">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>-9.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67">
         <v>92.69</v>
@@ -11759,13 +12586,16 @@
       <c r="L67">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C68">
         <v>2932.9</v>
@@ -11797,13 +12627,16 @@
       <c r="L68">
         <v>6.38</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>-8.390000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C69">
         <v>75.66</v>
@@ -11835,13 +12668,16 @@
       <c r="L69">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>-6.54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70">
         <v>741.75</v>
@@ -11873,13 +12709,16 @@
       <c r="L70">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C71">
         <v>210.61</v>
@@ -11911,13 +12750,16 @@
       <c r="L71">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>-17.75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72">
         <v>848.95</v>
@@ -11949,13 +12791,16 @@
       <c r="L72">
         <v>11.42</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>-7.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C73">
         <v>502.45</v>
@@ -11987,13 +12832,16 @@
       <c r="L73">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C74">
         <v>178.46</v>
@@ -12025,13 +12873,16 @@
       <c r="L74">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C75">
         <v>153.3</v>
@@ -12063,13 +12914,16 @@
       <c r="L75">
         <v>9.31</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>-12.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C76">
         <v>151.47</v>
@@ -12101,13 +12955,16 @@
       <c r="L76">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>-6.67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C77">
         <v>110.31</v>
@@ -12139,13 +12996,16 @@
       <c r="L77">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78">
         <v>852.9</v>
@@ -12177,13 +13037,16 @@
       <c r="L78">
         <v>13.61</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79">
         <v>121.13</v>
@@ -12215,13 +13078,16 @@
       <c r="L79">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C80">
         <v>147.07</v>
@@ -12253,13 +13119,16 @@
       <c r="L80">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C81">
         <v>5432</v>
@@ -12291,13 +13160,16 @@
       <c r="L81">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C82">
         <v>1099.4</v>
@@ -12329,13 +13201,16 @@
       <c r="L82">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>9.880000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C83">
         <v>1568.1</v>
@@ -12367,13 +13242,16 @@
       <c r="L83">
         <v>4.31</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>-3.86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C84">
         <v>1289.4</v>
@@ -12405,13 +13283,16 @@
       <c r="L84">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>-4.13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C85">
         <v>959.65</v>
@@ -12443,13 +13324,16 @@
       <c r="L85">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C86">
         <v>202.1</v>
@@ -12481,13 +13365,16 @@
       <c r="L86">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>-8.529999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C87">
         <v>1687</v>
@@ -12519,13 +13406,16 @@
       <c r="L87">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C88">
         <v>1001.25</v>
@@ -12557,13 +13447,16 @@
       <c r="L88">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>-7.27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C89">
         <v>175.62</v>
@@ -12595,13 +13488,16 @@
       <c r="L89">
         <v>8.27</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>-14.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C90">
         <v>1003.55</v>
@@ -12633,13 +13529,16 @@
       <c r="L90">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C91">
         <v>2160.8</v>
@@ -12671,13 +13570,16 @@
       <c r="L91">
         <v>8.44</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92">
         <v>774.05</v>
@@ -12709,13 +13611,16 @@
       <c r="L92">
         <v>8.56</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>-6.81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C93">
         <v>2296.6</v>
@@ -12747,13 +13652,16 @@
       <c r="L93">
         <v>16.65</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>-8.82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C94">
         <v>225.92</v>
@@ -12785,13 +13693,16 @@
       <c r="L94">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C95">
         <v>1169</v>
@@ -12823,13 +13734,16 @@
       <c r="L95">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C96">
         <v>1708.1</v>
@@ -12861,13 +13775,16 @@
       <c r="L96">
         <v>7.96</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>-4.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C97">
         <v>1702</v>
@@ -12899,13 +13816,16 @@
       <c r="L97">
         <v>9.42</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C98">
         <v>256.86</v>
@@ -12937,13 +13857,16 @@
       <c r="L98">
         <v>10.53</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C99">
         <v>385.9</v>
@@ -12975,13 +13898,16 @@
       <c r="L99">
         <v>12.54</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C100">
         <v>40915</v>
@@ -13013,9 +13939,12 @@
       <c r="L100">
         <v>0.57</v>
       </c>
+      <c r="M100">
+        <v>-5.82</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L100">
+  <conditionalFormatting sqref="A6:M100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -13035,7 +13964,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -13058,29 +13987,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -13117,13 +14047,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>140.1</v>
@@ -13155,13 +14088,16 @@
       <c r="L6">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>3814.2</v>
@@ -13193,13 +14129,16 @@
       <c r="L7">
         <v>-9.609999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>-10.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>1004.2</v>
@@ -13231,13 +14170,16 @@
       <c r="L8">
         <v>-2.21</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>339.15</v>
@@ -13269,13 +14211,16 @@
       <c r="L9">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>-4.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>2497.1</v>
@@ -13307,13 +14252,16 @@
       <c r="L10">
         <v>-0.6899999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11">
         <v>276.35</v>
@@ -13345,13 +14293,16 @@
       <c r="L11">
         <v>-1.58</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12">
         <v>328.85</v>
@@ -13383,13 +14334,16 @@
       <c r="L12">
         <v>-3.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13">
         <v>28585</v>
@@ -13421,13 +14375,16 @@
       <c r="L13">
         <v>-2.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>-7.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>2494.4</v>
@@ -13459,13 +14416,16 @@
       <c r="L14">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>-6.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15">
         <v>471.2</v>
@@ -13497,13 +14457,16 @@
       <c r="L15">
         <v>-2.33</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16">
         <v>412.75</v>
@@ -13535,13 +14498,16 @@
       <c r="L16">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17">
         <v>2406.5</v>
@@ -13573,13 +14539,16 @@
       <c r="L17">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>-6.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C18">
         <v>3576.5</v>
@@ -13611,9 +14580,12 @@
       <c r="L18">
         <v>-0.74</v>
       </c>
+      <c r="M18">
+        <v>4.72</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L18">
+  <conditionalFormatting sqref="A6:M18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -13633,7 +14605,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -13656,29 +14628,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -13715,13 +14688,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>187.26</v>
@@ -13753,13 +14729,16 @@
       <c r="L6">
         <v>16.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>-18.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>7510</v>
@@ -13791,13 +14770,16 @@
       <c r="L7">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>3717</v>
@@ -13829,13 +14811,16 @@
       <c r="L8">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>1271</v>
@@ -13867,13 +14852,16 @@
       <c r="L9">
         <v>10.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>2140.2</v>
@@ -13905,13 +14893,16 @@
       <c r="L10">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>-5.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>1072.75</v>
@@ -13943,13 +14934,16 @@
       <c r="L11">
         <v>7.39</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>-8.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>9116.5</v>
@@ -13981,13 +14975,16 @@
       <c r="L12">
         <v>16.94</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>5596</v>
@@ -14019,13 +15016,16 @@
       <c r="L13">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14">
         <v>2830.9</v>
@@ -14057,13 +15057,16 @@
       <c r="L14">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>-1.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15">
         <v>5545</v>
@@ -14095,13 +15098,16 @@
       <c r="L15">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>-6.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>3972.8</v>
@@ -14133,13 +15139,16 @@
       <c r="L16">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17">
         <v>702.6</v>
@@ -14171,13 +15180,16 @@
       <c r="L17">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18">
         <v>154.52</v>
@@ -14209,13 +15221,16 @@
       <c r="L18">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19">
         <v>250.54</v>
@@ -14247,13 +15262,16 @@
       <c r="L19">
         <v>4.61</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>-2.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20">
         <v>1486.9</v>
@@ -14285,13 +15303,16 @@
       <c r="L20">
         <v>9.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21">
         <v>141.09</v>
@@ -14323,13 +15344,16 @@
       <c r="L21">
         <v>14.33</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22">
         <v>930.25</v>
@@ -14361,13 +15385,16 @@
       <c r="L22">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23">
         <v>1918.7</v>
@@ -14399,13 +15426,16 @@
       <c r="L23">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24">
         <v>1246.3</v>
@@ -14437,13 +15467,16 @@
       <c r="L24">
         <v>10.14</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C25">
         <v>1363.1</v>
@@ -14475,13 +15508,16 @@
       <c r="L25">
         <v>1.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26">
         <v>2090.2</v>
@@ -14513,9 +15549,12 @@
       <c r="L26">
         <v>11.28</v>
       </c>
+      <c r="M26">
+        <v>3.42</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L26">
+  <conditionalFormatting sqref="A6:M26">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -14535,7 +15574,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -14558,29 +15597,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -14617,13 +15657,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1115.5</v>
@@ -14655,13 +15698,16 @@
       <c r="L6">
         <v>-4.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>394.6</v>
@@ -14693,13 +15739,16 @@
       <c r="L7">
         <v>-3.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>-8.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>132.16</v>
@@ -14731,13 +15780,16 @@
       <c r="L8">
         <v>-1.73</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C9">
         <v>6842</v>
@@ -14769,9 +15821,12 @@
       <c r="L9">
         <v>-2.98</v>
       </c>
+      <c r="M9">
+        <v>-15.56</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L9">
+  <conditionalFormatting sqref="A6:M9">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>

--- a/generated_data/Oct2025_Rollover_Data.xlsx
+++ b/generated_data/Oct2025_Rollover_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="254">
   <si>
     <t>Sectoral Index</t>
   </si>
@@ -762,6 +762,24 @@
   </si>
   <si>
     <t>Long Unwind (MoM- , %Roll- , Cost-)</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>281025</t>
+  </si>
+  <si>
+    <t>Prev Date</t>
+  </si>
+  <si>
+    <t>300925</t>
+  </si>
+  <si>
+    <t>Next Date</t>
+  </si>
+  <si>
+    <t>251125</t>
   </si>
 </sst>
 </file>
@@ -1232,15 +1250,33 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9991,16 +10027,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -10050,166 +10104,166 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C6">
-        <v>475.8</v>
+        <v>1632.8</v>
       </c>
       <c r="D6">
-        <v>478.65</v>
+        <v>1643.6</v>
       </c>
       <c r="E6">
-        <v>2.85</v>
+        <v>10.8</v>
       </c>
       <c r="F6">
-        <v>96.54000000000001</v>
+        <v>92.41</v>
       </c>
       <c r="G6">
-        <v>88.87</v>
+        <v>91.34</v>
       </c>
       <c r="H6">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="I6">
-        <v>0.41</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J6">
-        <v>7.67</v>
+        <v>1.07</v>
       </c>
       <c r="K6">
-        <v>0.36</v>
+        <v>1.34</v>
       </c>
       <c r="L6">
-        <v>5.72</v>
+        <v>11.94</v>
       </c>
       <c r="M6">
-        <v>-13.69</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="C7">
-        <v>695.5</v>
+        <v>151.47</v>
       </c>
       <c r="D7">
-        <v>699.4</v>
+        <v>152.41</v>
       </c>
       <c r="E7">
-        <v>3.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F7">
-        <v>96.08</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="G7">
-        <v>93.59999999999999</v>
+        <v>85.69</v>
       </c>
       <c r="H7">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="I7">
-        <v>-0.19</v>
+        <v>-0.52</v>
       </c>
       <c r="J7">
-        <v>2.47</v>
+        <v>8.57</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>1.2</v>
       </c>
       <c r="L7">
-        <v>3.88</v>
+        <v>1.86</v>
       </c>
       <c r="M7">
-        <v>-3.74</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="C8">
-        <v>892.8</v>
+        <v>256.86</v>
       </c>
       <c r="D8">
-        <v>900.4</v>
+        <v>257.62</v>
       </c>
       <c r="E8">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="F8">
-        <v>97.20999999999999</v>
+        <v>94.94</v>
       </c>
       <c r="G8">
-        <v>89.12</v>
+        <v>85.77</v>
       </c>
       <c r="H8">
-        <v>0.59</v>
+        <v>0.11</v>
       </c>
       <c r="I8">
-        <v>0.35</v>
+        <v>-0.88</v>
       </c>
       <c r="J8">
-        <v>8.09</v>
+        <v>9.16</v>
       </c>
       <c r="K8">
-        <v>0.24</v>
+        <v>0.99</v>
       </c>
       <c r="L8">
-        <v>2.29</v>
+        <v>10.53</v>
       </c>
       <c r="M8">
-        <v>-6.24</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="C9">
-        <v>38540</v>
+        <v>40915</v>
       </c>
       <c r="D9">
-        <v>38770</v>
+        <v>40875</v>
       </c>
       <c r="E9">
-        <v>230</v>
+        <v>-40</v>
       </c>
       <c r="F9">
-        <v>95.7</v>
+        <v>95.69</v>
       </c>
       <c r="G9">
-        <v>93.06</v>
+        <v>91.33</v>
       </c>
       <c r="H9">
-        <v>0.67</v>
+        <v>-0.11</v>
       </c>
       <c r="I9">
-        <v>0.37</v>
+        <v>-1.08</v>
       </c>
       <c r="J9">
-        <v>2.64</v>
+        <v>4.36</v>
       </c>
       <c r="K9">
-        <v>0.3</v>
+        <v>0.97</v>
       </c>
       <c r="L9">
-        <v>1.04</v>
+        <v>0.57</v>
       </c>
       <c r="M9">
-        <v>-7.19</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -10217,163 +10271,163 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>5609.5</v>
+        <v>484.35</v>
       </c>
       <c r="D10">
-        <v>5630.5</v>
+        <v>486.25</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>1.9</v>
       </c>
       <c r="F10">
-        <v>94.27</v>
+        <v>95.56</v>
       </c>
       <c r="G10">
-        <v>89.86</v>
+        <v>91.42</v>
       </c>
       <c r="H10">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="I10">
-        <v>-0.22</v>
+        <v>-0.28</v>
       </c>
       <c r="J10">
-        <v>4.41</v>
+        <v>4.14</v>
       </c>
       <c r="K10">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="L10">
-        <v>2.5</v>
+        <v>17.63</v>
       </c>
       <c r="M10">
-        <v>8.41</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C11">
-        <v>16311</v>
+        <v>2537.9</v>
       </c>
       <c r="D11">
-        <v>16424</v>
+        <v>2551.3</v>
       </c>
       <c r="E11">
-        <v>113</v>
+        <v>13.4</v>
       </c>
       <c r="F11">
-        <v>89.84999999999999</v>
+        <v>88.42</v>
       </c>
       <c r="G11">
-        <v>78.28</v>
+        <v>82.41</v>
       </c>
       <c r="H11">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="I11">
-        <v>0.29</v>
+        <v>-0.41</v>
       </c>
       <c r="J11">
-        <v>11.58</v>
+        <v>6.02</v>
       </c>
       <c r="K11">
-        <v>0.34</v>
+        <v>0.9</v>
       </c>
       <c r="L11">
-        <v>1.76</v>
+        <v>19.01</v>
       </c>
       <c r="M11">
-        <v>-2.59</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C12">
-        <v>106.98</v>
+        <v>695.5</v>
       </c>
       <c r="D12">
-        <v>107.49</v>
+        <v>699.4</v>
       </c>
       <c r="E12">
-        <v>0.51</v>
+        <v>3.9</v>
       </c>
       <c r="F12">
-        <v>97.92</v>
+        <v>96.08</v>
       </c>
       <c r="G12">
-        <v>95.81</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H12">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I12">
-        <v>0.57</v>
+        <v>-0.19</v>
       </c>
       <c r="J12">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="K12">
-        <v>0.04</v>
+        <v>0.84</v>
       </c>
       <c r="L12">
-        <v>1.26</v>
+        <v>3.88</v>
       </c>
       <c r="M12">
-        <v>3.02</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="C13">
-        <v>484.35</v>
+        <v>268.35</v>
       </c>
       <c r="D13">
-        <v>486.25</v>
+        <v>271.11</v>
       </c>
       <c r="E13">
-        <v>1.9</v>
+        <v>2.76</v>
       </c>
       <c r="F13">
-        <v>95.56</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="G13">
-        <v>91.42</v>
+        <v>89.28</v>
       </c>
       <c r="H13">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I13">
-        <v>-0.28</v>
+        <v>-0.18</v>
       </c>
       <c r="J13">
-        <v>4.14</v>
+        <v>6.66</v>
       </c>
       <c r="K13">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="L13">
-        <v>17.63</v>
+        <v>7.65</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10381,983 +10435,983 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>3562</v>
+        <v>5609.5</v>
       </c>
       <c r="D14">
-        <v>3574.8</v>
+        <v>5630.5</v>
       </c>
       <c r="E14">
-        <v>12.8</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>95.98999999999999</v>
+        <v>94.27</v>
       </c>
       <c r="G14">
-        <v>89.06</v>
+        <v>89.86</v>
       </c>
       <c r="H14">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>-0.22</v>
       </c>
       <c r="J14">
-        <v>6.94</v>
+        <v>4.41</v>
       </c>
       <c r="K14">
-        <v>0.08</v>
+        <v>0.67</v>
       </c>
       <c r="L14">
-        <v>3.59</v>
+        <v>2.5</v>
       </c>
       <c r="M14">
-        <v>-3.21</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C15">
-        <v>879.9</v>
+        <v>3985.2</v>
       </c>
       <c r="D15">
-        <v>884.1</v>
+        <v>3995</v>
       </c>
       <c r="E15">
-        <v>4.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F15">
-        <v>94.08</v>
+        <v>90.03</v>
       </c>
       <c r="G15">
-        <v>93.42</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="H15">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="I15">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="J15">
-        <v>0.67</v>
+        <v>2.99</v>
       </c>
       <c r="K15">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="L15">
-        <v>20.3</v>
+        <v>6.03</v>
       </c>
       <c r="M15">
-        <v>7.29</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="C16">
-        <v>2509.3</v>
+        <v>1289.4</v>
       </c>
       <c r="D16">
-        <v>2519.4</v>
+        <v>1297.2</v>
       </c>
       <c r="E16">
-        <v>10.1</v>
+        <v>7.8</v>
       </c>
       <c r="F16">
-        <v>94.63</v>
+        <v>89.15000000000001</v>
       </c>
       <c r="G16">
-        <v>90.55</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="H16">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="I16">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
       <c r="J16">
-        <v>4.08</v>
+        <v>2.44</v>
       </c>
       <c r="K16">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>6.78</v>
+        <v>5.37</v>
       </c>
       <c r="M16">
-        <v>14.61</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C17">
-        <v>1450.2</v>
+        <v>1522.1</v>
       </c>
       <c r="D17">
-        <v>1459.8</v>
+        <v>1529.4</v>
       </c>
       <c r="E17">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="F17">
-        <v>95.95999999999999</v>
+        <v>95.31</v>
       </c>
       <c r="G17">
-        <v>92.95999999999999</v>
+        <v>93.55</v>
       </c>
       <c r="H17">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="I17">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="K17">
-        <v>0.11</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>6.13</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="M17">
-        <v>1.06</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="C18">
-        <v>1951.6</v>
+        <v>1708.1</v>
       </c>
       <c r="D18">
-        <v>1958.3</v>
+        <v>1716.2</v>
       </c>
       <c r="E18">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="F18">
-        <v>86.23</v>
+        <v>92.56</v>
       </c>
       <c r="G18">
-        <v>81.97</v>
+        <v>92.37</v>
       </c>
       <c r="H18">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="I18">
-        <v>0.13</v>
+        <v>-0</v>
       </c>
       <c r="J18">
-        <v>4.25</v>
+        <v>0.19</v>
       </c>
       <c r="K18">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>7.96</v>
       </c>
       <c r="M18">
-        <v>-10.5</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="C19">
-        <v>504.9</v>
+        <v>5432</v>
       </c>
       <c r="D19">
-        <v>508.2</v>
+        <v>5470.5</v>
       </c>
       <c r="E19">
-        <v>3.3</v>
+        <v>38.5</v>
       </c>
       <c r="F19">
-        <v>95.15000000000001</v>
+        <v>97.64</v>
       </c>
       <c r="G19">
-        <v>87.94</v>
+        <v>93.5</v>
       </c>
       <c r="H19">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="I19">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="J19">
-        <v>7.21</v>
+        <v>4.14</v>
       </c>
       <c r="K19">
-        <v>0.38</v>
+        <v>0.59</v>
       </c>
       <c r="L19">
-        <v>11.14</v>
+        <v>0.13</v>
       </c>
       <c r="M19">
-        <v>-4.38</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C20">
-        <v>565.3</v>
+        <v>5646.5</v>
       </c>
       <c r="D20">
-        <v>568.4</v>
+        <v>5694</v>
       </c>
       <c r="E20">
-        <v>3.1</v>
+        <v>47.5</v>
       </c>
       <c r="F20">
-        <v>95.34</v>
+        <v>95.19</v>
       </c>
       <c r="G20">
-        <v>94.33</v>
+        <v>90.87</v>
       </c>
       <c r="H20">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="I20">
-        <v>0.61</v>
+        <v>0.4</v>
       </c>
       <c r="J20">
-        <v>1.01</v>
+        <v>4.31</v>
       </c>
       <c r="K20">
-        <v>0.06</v>
+        <v>0.53</v>
       </c>
       <c r="L20">
-        <v>12.54</v>
+        <v>2.06</v>
       </c>
       <c r="M20">
-        <v>0.89</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C21">
-        <v>1492</v>
+        <v>2419.7</v>
       </c>
       <c r="D21">
-        <v>1500.1</v>
+        <v>2436.9</v>
       </c>
       <c r="E21">
-        <v>8.1</v>
+        <v>17.2</v>
       </c>
       <c r="F21">
-        <v>97.25</v>
+        <v>92.95</v>
       </c>
       <c r="G21">
-        <v>94.69</v>
+        <v>82.65000000000001</v>
       </c>
       <c r="H21">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
       <c r="I21">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="J21">
-        <v>2.56</v>
+        <v>10.3</v>
       </c>
       <c r="K21">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="L21">
-        <v>1.63</v>
+        <v>18.6</v>
       </c>
       <c r="M21">
-        <v>-1.7</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="C22">
-        <v>1517.6</v>
+        <v>1169</v>
       </c>
       <c r="D22">
-        <v>1526.5</v>
+        <v>1175.2</v>
       </c>
       <c r="E22">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="F22">
-        <v>95.75</v>
+        <v>97.12</v>
       </c>
       <c r="G22">
-        <v>91.83</v>
+        <v>92.78</v>
       </c>
       <c r="H22">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="I22">
-        <v>0.58</v>
+        <v>0.15</v>
       </c>
       <c r="J22">
-        <v>3.92</v>
+        <v>4.34</v>
       </c>
       <c r="K22">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="L22">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="M22">
-        <v>-3.64</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="C23">
-        <v>413.55</v>
+        <v>852.9</v>
       </c>
       <c r="D23">
-        <v>415.95</v>
+        <v>855.95</v>
       </c>
       <c r="E23">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="F23">
-        <v>95.83</v>
+        <v>94.33</v>
       </c>
       <c r="G23">
-        <v>93.59999999999999</v>
+        <v>88.58</v>
       </c>
       <c r="H23">
-        <v>0.59</v>
+        <v>0.39</v>
       </c>
       <c r="I23">
-        <v>0.55</v>
+        <v>-0.09</v>
       </c>
       <c r="J23">
-        <v>2.23</v>
+        <v>5.75</v>
       </c>
       <c r="K23">
-        <v>0.04</v>
+        <v>0.47</v>
       </c>
       <c r="L23">
-        <v>2.38</v>
+        <v>13.61</v>
       </c>
       <c r="M23">
-        <v>-0.8</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C24">
-        <v>1417.9</v>
+        <v>879.9</v>
       </c>
       <c r="D24">
-        <v>1427.7</v>
+        <v>884.1</v>
       </c>
       <c r="E24">
-        <v>9.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="F24">
-        <v>97.91</v>
+        <v>94.08</v>
       </c>
       <c r="G24">
-        <v>92.92</v>
+        <v>93.42</v>
       </c>
       <c r="H24">
+        <v>0.24</v>
+      </c>
+      <c r="I24">
+        <v>-0.21</v>
+      </c>
+      <c r="J24">
         <v>0.67</v>
       </c>
-      <c r="I24">
-        <v>0.5</v>
-      </c>
-      <c r="J24">
-        <v>4.99</v>
-      </c>
       <c r="K24">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="L24">
-        <v>1.03</v>
+        <v>20.3</v>
       </c>
       <c r="M24">
-        <v>4.65</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="C25">
-        <v>3587.2</v>
+        <v>153.3</v>
       </c>
       <c r="D25">
-        <v>3606.5</v>
+        <v>154.14</v>
       </c>
       <c r="E25">
-        <v>19.3</v>
+        <v>0.84</v>
       </c>
       <c r="F25">
-        <v>97.23</v>
+        <v>97.09</v>
       </c>
       <c r="G25">
-        <v>92.59999999999999</v>
+        <v>87.92</v>
       </c>
       <c r="H25">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="I25">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="J25">
-        <v>4.63</v>
+        <v>9.17</v>
       </c>
       <c r="K25">
-        <v>0.28</v>
+        <v>0.41</v>
       </c>
       <c r="L25">
-        <v>2.1</v>
+        <v>9.31</v>
       </c>
       <c r="M25">
-        <v>-3.87</v>
+        <v>-12.13</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C26">
-        <v>921.2</v>
+        <v>3057.9</v>
       </c>
       <c r="D26">
-        <v>926.6</v>
+        <v>3073.1</v>
       </c>
       <c r="E26">
-        <v>5.4</v>
+        <v>15.2</v>
       </c>
       <c r="F26">
-        <v>97.78</v>
+        <v>95.67</v>
       </c>
       <c r="G26">
-        <v>96.2</v>
+        <v>91.77</v>
       </c>
       <c r="H26">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I26">
-        <v>0.63</v>
+        <v>0.3</v>
       </c>
       <c r="J26">
-        <v>1.57</v>
+        <v>3.9</v>
       </c>
       <c r="K26">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="L26">
-        <v>5.61</v>
+        <v>5.87</v>
       </c>
       <c r="M26">
-        <v>5.46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C27">
-        <v>536.35</v>
+        <v>504.9</v>
       </c>
       <c r="D27">
-        <v>539.6</v>
+        <v>508.2</v>
       </c>
       <c r="E27">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="F27">
-        <v>98.09</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="G27">
-        <v>96.51000000000001</v>
+        <v>87.94</v>
       </c>
       <c r="H27">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="I27">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="J27">
-        <v>1.58</v>
+        <v>7.21</v>
       </c>
       <c r="K27">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="L27">
-        <v>1.04</v>
+        <v>11.14</v>
       </c>
       <c r="M27">
-        <v>-11.14</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>56.22</v>
+        <v>475.8</v>
       </c>
       <c r="D28">
-        <v>56.65</v>
+        <v>478.65</v>
       </c>
       <c r="E28">
-        <v>0.43</v>
+        <v>2.85</v>
       </c>
       <c r="F28">
-        <v>95.68000000000001</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="G28">
-        <v>91.13</v>
+        <v>88.87</v>
       </c>
       <c r="H28">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="J28">
-        <v>4.55</v>
+        <v>7.67</v>
       </c>
       <c r="K28">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="L28">
-        <v>2.13</v>
+        <v>5.72</v>
       </c>
       <c r="M28">
-        <v>-3.61</v>
+        <v>-13.69</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="C29">
-        <v>398.65</v>
+        <v>1001.25</v>
       </c>
       <c r="D29">
-        <v>401.25</v>
+        <v>1007.75</v>
       </c>
       <c r="E29">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="F29">
-        <v>95.62</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="G29">
-        <v>95.54000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="H29">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="I29">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
       <c r="J29">
-        <v>0.07000000000000001</v>
+        <v>2.56</v>
       </c>
       <c r="K29">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="L29">
-        <v>2.57</v>
+        <v>1.97</v>
       </c>
       <c r="M29">
-        <v>-4.68</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>1277.2</v>
+        <v>16311</v>
       </c>
       <c r="D30">
-        <v>1286.6</v>
+        <v>16424</v>
       </c>
       <c r="E30">
-        <v>9.4</v>
+        <v>113</v>
       </c>
       <c r="F30">
-        <v>95.53</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="G30">
-        <v>90.06</v>
+        <v>78.28</v>
       </c>
       <c r="H30">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I30">
-        <v>0.51</v>
+        <v>0.29</v>
       </c>
       <c r="J30">
-        <v>5.47</v>
+        <v>11.58</v>
       </c>
       <c r="K30">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="L30">
-        <v>4.78</v>
+        <v>1.76</v>
       </c>
       <c r="M30">
-        <v>1.24</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C31">
-        <v>417.9</v>
+        <v>536.35</v>
       </c>
       <c r="D31">
-        <v>420.45</v>
+        <v>539.6</v>
       </c>
       <c r="E31">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="F31">
-        <v>96.48999999999999</v>
+        <v>98.09</v>
       </c>
       <c r="G31">
-        <v>91.90000000000001</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="H31">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="I31">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="J31">
-        <v>4.6</v>
+        <v>1.58</v>
       </c>
       <c r="K31">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="L31">
-        <v>4.07</v>
+        <v>1.04</v>
       </c>
       <c r="M31">
-        <v>-4.09</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C32">
-        <v>720.05</v>
+        <v>1171.8</v>
       </c>
       <c r="D32">
-        <v>725.25</v>
+        <v>1175.9</v>
       </c>
       <c r="E32">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="F32">
-        <v>98.01000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="G32">
-        <v>96.47</v>
+        <v>67.14</v>
       </c>
       <c r="H32">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="I32">
+        <v>0.3</v>
+      </c>
+      <c r="J32">
+        <v>24.06</v>
+      </c>
+      <c r="K32">
         <v>0.33</v>
       </c>
-      <c r="J32">
-        <v>1.54</v>
-      </c>
-      <c r="K32">
-        <v>0.27</v>
-      </c>
       <c r="L32">
-        <v>3.25</v>
+        <v>14.43</v>
       </c>
       <c r="M32">
-        <v>1.57</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C33">
-        <v>4725.4</v>
+        <v>1187.7</v>
       </c>
       <c r="D33">
-        <v>4749.1</v>
+        <v>1195</v>
       </c>
       <c r="E33">
-        <v>23.7</v>
+        <v>7.3</v>
       </c>
       <c r="F33">
-        <v>96.51000000000001</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="G33">
-        <v>92.68000000000001</v>
+        <v>89.94</v>
       </c>
       <c r="H33">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="I33">
-        <v>0.52</v>
+        <v>0.14</v>
       </c>
       <c r="J33">
-        <v>3.83</v>
+        <v>5.38</v>
       </c>
       <c r="K33">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="L33">
-        <v>1.02</v>
+        <v>3.62</v>
       </c>
       <c r="M33">
-        <v>-10.19</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>1351.8</v>
+        <v>38540</v>
       </c>
       <c r="D34">
-        <v>1360.5</v>
+        <v>38770</v>
       </c>
       <c r="E34">
-        <v>8.699999999999999</v>
+        <v>230</v>
       </c>
       <c r="F34">
-        <v>97.81</v>
+        <v>95.7</v>
       </c>
       <c r="G34">
-        <v>94.18000000000001</v>
+        <v>93.06</v>
       </c>
       <c r="H34">
         <v>0.67</v>
       </c>
       <c r="I34">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="J34">
-        <v>3.62</v>
+        <v>2.64</v>
       </c>
       <c r="K34">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="L34">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="M34">
-        <v>5.81</v>
+        <v>-7.19</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="C35">
-        <v>454.15</v>
+        <v>1687</v>
       </c>
       <c r="D35">
-        <v>457.6</v>
+        <v>1696.8</v>
       </c>
       <c r="E35">
-        <v>3.45</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F35">
-        <v>98.37</v>
+        <v>95.53</v>
       </c>
       <c r="G35">
-        <v>90.69</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="H35">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="I35">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="J35">
-        <v>7.67</v>
+        <v>4.77</v>
       </c>
       <c r="K35">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="L35">
-        <v>2.36</v>
+        <v>5.81</v>
       </c>
       <c r="M35">
-        <v>-1.12</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C36">
-        <v>1171.8</v>
+        <v>3587.2</v>
       </c>
       <c r="D36">
-        <v>1175.9</v>
+        <v>3606.5</v>
       </c>
       <c r="E36">
-        <v>4.1</v>
+        <v>19.3</v>
       </c>
       <c r="F36">
-        <v>91.2</v>
+        <v>97.23</v>
       </c>
       <c r="G36">
-        <v>67.14</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="H36">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="I36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J36">
-        <v>24.06</v>
+        <v>4.63</v>
       </c>
       <c r="K36">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="L36">
-        <v>14.43</v>
+        <v>2.1</v>
       </c>
       <c r="M36">
-        <v>-4.42</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37">
-        <v>312.6</v>
+        <v>454.15</v>
       </c>
       <c r="D37">
-        <v>314.35</v>
+        <v>457.6</v>
       </c>
       <c r="E37">
-        <v>1.75</v>
+        <v>3.45</v>
       </c>
       <c r="F37">
-        <v>98.02</v>
+        <v>98.37</v>
       </c>
       <c r="G37">
-        <v>94.23999999999999</v>
+        <v>90.69</v>
       </c>
       <c r="H37">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="I37">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="J37">
-        <v>3.78</v>
+        <v>7.67</v>
       </c>
       <c r="K37">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="L37">
-        <v>6.93</v>
+        <v>2.36</v>
       </c>
       <c r="M37">
-        <v>10.51</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -11365,286 +11419,286 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C38">
-        <v>2537.9</v>
+        <v>600.5</v>
       </c>
       <c r="D38">
-        <v>2551.3</v>
+        <v>604.7</v>
       </c>
       <c r="E38">
-        <v>13.4</v>
+        <v>4.2</v>
       </c>
       <c r="F38">
-        <v>88.42</v>
+        <v>97.67</v>
       </c>
       <c r="G38">
-        <v>82.41</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="H38">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="I38">
-        <v>-0.41</v>
+        <v>0.49</v>
       </c>
       <c r="J38">
-        <v>6.02</v>
+        <v>4.37</v>
       </c>
       <c r="K38">
-        <v>0.9</v>
+        <v>0.27</v>
       </c>
       <c r="L38">
-        <v>19.01</v>
+        <v>0.89</v>
       </c>
       <c r="M38">
-        <v>5.9</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C39">
-        <v>2419.7</v>
+        <v>1568.1</v>
       </c>
       <c r="D39">
-        <v>2436.9</v>
+        <v>1575</v>
       </c>
       <c r="E39">
-        <v>17.2</v>
+        <v>6.9</v>
       </c>
       <c r="F39">
-        <v>92.95</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="G39">
-        <v>82.65000000000001</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="H39">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="I39">
+        <v>0.4</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
         <v>0.27</v>
       </c>
-      <c r="J39">
-        <v>10.3</v>
-      </c>
-      <c r="K39">
-        <v>0.51</v>
-      </c>
       <c r="L39">
-        <v>18.6</v>
+        <v>4.31</v>
       </c>
       <c r="M39">
-        <v>17.39</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="C40">
-        <v>1632.8</v>
+        <v>242.38</v>
       </c>
       <c r="D40">
-        <v>1643.6</v>
+        <v>242.99</v>
       </c>
       <c r="E40">
-        <v>10.8</v>
+        <v>0.61</v>
       </c>
       <c r="F40">
-        <v>92.41</v>
+        <v>95.02</v>
       </c>
       <c r="G40">
-        <v>91.34</v>
+        <v>91.27</v>
       </c>
       <c r="H40">
-        <v>0.65</v>
+        <v>0.1</v>
       </c>
       <c r="I40">
-        <v>-0.6899999999999999</v>
+        <v>-0.16</v>
       </c>
       <c r="J40">
-        <v>1.07</v>
+        <v>3.75</v>
       </c>
       <c r="K40">
+        <v>0.27</v>
+      </c>
+      <c r="L40">
+        <v>1.26</v>
+      </c>
+      <c r="M40">
         <v>1.34</v>
-      </c>
-      <c r="L40">
-        <v>11.94</v>
-      </c>
-      <c r="M40">
-        <v>-3.6</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C41">
-        <v>5646.5</v>
+        <v>242.38</v>
       </c>
       <c r="D41">
-        <v>5694</v>
+        <v>242.99</v>
       </c>
       <c r="E41">
-        <v>47.5</v>
+        <v>0.61</v>
       </c>
       <c r="F41">
-        <v>95.19</v>
+        <v>95.02</v>
       </c>
       <c r="G41">
-        <v>90.87</v>
+        <v>91.27</v>
       </c>
       <c r="H41">
-        <v>0.93</v>
+        <v>0.1</v>
       </c>
       <c r="I41">
-        <v>0.4</v>
+        <v>-0.16</v>
       </c>
       <c r="J41">
-        <v>4.31</v>
+        <v>3.75</v>
       </c>
       <c r="K41">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="L41">
-        <v>2.06</v>
+        <v>1.26</v>
       </c>
       <c r="M41">
-        <v>-5.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C42">
-        <v>2019</v>
+        <v>720.05</v>
       </c>
       <c r="D42">
-        <v>2032.7</v>
+        <v>725.25</v>
       </c>
       <c r="E42">
-        <v>13.7</v>
+        <v>5.2</v>
       </c>
       <c r="F42">
-        <v>97.86</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="G42">
-        <v>93.97</v>
+        <v>96.47</v>
       </c>
       <c r="H42">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="I42">
         <v>0.33</v>
       </c>
       <c r="J42">
-        <v>3.89</v>
+        <v>1.54</v>
       </c>
       <c r="K42">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="L42">
-        <v>6.84</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>-0.99</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C43">
-        <v>600.5</v>
+        <v>848.95</v>
       </c>
       <c r="D43">
-        <v>604.7</v>
+        <v>853.7</v>
       </c>
       <c r="E43">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="F43">
-        <v>97.67</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="G43">
-        <v>93.29000000000001</v>
+        <v>94.89</v>
       </c>
       <c r="H43">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="I43">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
       <c r="J43">
-        <v>4.37</v>
+        <v>1.65</v>
       </c>
       <c r="K43">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="L43">
-        <v>0.89</v>
+        <v>11.42</v>
       </c>
       <c r="M43">
-        <v>1.96</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>147.52</v>
+        <v>892.8</v>
       </c>
       <c r="D44">
-        <v>148.56</v>
+        <v>900.4</v>
       </c>
       <c r="E44">
-        <v>1.04</v>
+        <v>7.6</v>
       </c>
       <c r="F44">
-        <v>87.27</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="G44">
-        <v>82.98</v>
+        <v>89.12</v>
       </c>
       <c r="H44">
-        <v>0.67</v>
+        <v>0.59</v>
       </c>
       <c r="I44">
-        <v>0.5600000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="J44">
-        <v>4.29</v>
+        <v>8.09</v>
       </c>
       <c r="K44">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="L44">
-        <v>5.98</v>
+        <v>2.29</v>
       </c>
       <c r="M44">
-        <v>-4.93</v>
+        <v>-6.24</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -11652,122 +11706,122 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C45">
-        <v>513.8</v>
+        <v>585.9</v>
       </c>
       <c r="D45">
-        <v>516.25</v>
+        <v>588.65</v>
       </c>
       <c r="E45">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="F45">
-        <v>97.55</v>
+        <v>96.28</v>
       </c>
       <c r="G45">
-        <v>92.19</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="H45">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="I45">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="J45">
-        <v>5.36</v>
+        <v>3.47</v>
       </c>
       <c r="K45">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="L45">
-        <v>13.7</v>
+        <v>3.7</v>
       </c>
       <c r="M45">
-        <v>8.49</v>
+        <v>-6.45</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="C46">
-        <v>307.95</v>
+        <v>175.62</v>
       </c>
       <c r="D46">
-        <v>309.9</v>
+        <v>176.46</v>
       </c>
       <c r="E46">
-        <v>1.95</v>
+        <v>0.84</v>
       </c>
       <c r="F46">
-        <v>97.01000000000001</v>
+        <v>96.37</v>
       </c>
       <c r="G46">
-        <v>93.79000000000001</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="H46">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="I46">
-        <v>0.58</v>
+        <v>0.38</v>
       </c>
       <c r="J46">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="K46">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="L46">
-        <v>5.03</v>
+        <v>8.27</v>
       </c>
       <c r="M46">
-        <v>-2.32</v>
+        <v>-14.8</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="C47">
-        <v>585.9</v>
+        <v>202.1</v>
       </c>
       <c r="D47">
-        <v>588.65</v>
+        <v>203.7</v>
       </c>
       <c r="E47">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="F47">
-        <v>96.28</v>
+        <v>94.2</v>
       </c>
       <c r="G47">
-        <v>92.81999999999999</v>
+        <v>87.28</v>
       </c>
       <c r="H47">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="I47">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J47">
-        <v>3.47</v>
+        <v>6.92</v>
       </c>
       <c r="K47">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="L47">
-        <v>3.7</v>
+        <v>5.72</v>
       </c>
       <c r="M47">
-        <v>-6.45</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -11775,2172 +11829,2172 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C48">
-        <v>268.35</v>
+        <v>933.5</v>
       </c>
       <c r="D48">
-        <v>271.11</v>
+        <v>938.95</v>
       </c>
       <c r="E48">
-        <v>2.76</v>
+        <v>5.45</v>
       </c>
       <c r="F48">
-        <v>95.93000000000001</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="G48">
-        <v>89.28</v>
+        <v>90.58</v>
       </c>
       <c r="H48">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I48">
-        <v>-0.18</v>
+        <v>0.47</v>
       </c>
       <c r="J48">
-        <v>6.66</v>
+        <v>6.77</v>
       </c>
       <c r="K48">
-        <v>0.82</v>
+        <v>0.22</v>
       </c>
       <c r="L48">
-        <v>7.65</v>
+        <v>8.09</v>
       </c>
       <c r="M48">
-        <v>10.64</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C49">
-        <v>933.5</v>
+        <v>1951.6</v>
       </c>
       <c r="D49">
-        <v>938.95</v>
+        <v>1958.3</v>
       </c>
       <c r="E49">
-        <v>5.45</v>
+        <v>6.7</v>
       </c>
       <c r="F49">
-        <v>97.34999999999999</v>
+        <v>86.23</v>
       </c>
       <c r="G49">
-        <v>90.58</v>
+        <v>81.97</v>
       </c>
       <c r="H49">
-        <v>0.6899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="I49">
-        <v>0.47</v>
+        <v>0.13</v>
       </c>
       <c r="J49">
-        <v>6.77</v>
+        <v>4.25</v>
       </c>
       <c r="K49">
         <v>0.22</v>
       </c>
       <c r="L49">
-        <v>8.09</v>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <v>-5.58</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C50">
-        <v>1775</v>
+        <v>13853</v>
       </c>
       <c r="D50">
-        <v>1787.1</v>
+        <v>13947</v>
       </c>
       <c r="E50">
-        <v>12.1</v>
+        <v>94</v>
       </c>
       <c r="F50">
-        <v>96.70999999999999</v>
+        <v>98.17</v>
       </c>
       <c r="G50">
-        <v>92.77</v>
+        <v>92.44</v>
       </c>
       <c r="H50">
-        <v>0.51</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I50">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="J50">
-        <v>3.94</v>
+        <v>5.73</v>
       </c>
       <c r="K50">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="L50">
-        <v>4.29</v>
+        <v>3.95</v>
       </c>
       <c r="M50">
-        <v>-0.51</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="C51">
-        <v>1936.8</v>
+        <v>147.07</v>
       </c>
       <c r="D51">
-        <v>1944.5</v>
+        <v>147.81</v>
       </c>
       <c r="E51">
-        <v>7.7</v>
+        <v>0.74</v>
       </c>
       <c r="F51">
-        <v>88.41</v>
+        <v>96.88</v>
       </c>
       <c r="G51">
-        <v>87.02</v>
+        <v>91.64</v>
       </c>
       <c r="H51">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="I51">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="J51">
-        <v>1.4</v>
+        <v>5.24</v>
       </c>
       <c r="K51">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="L51">
-        <v>8.16</v>
+        <v>6.18</v>
       </c>
       <c r="M51">
-        <v>4.86</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C52">
-        <v>1179.7</v>
+        <v>2019</v>
       </c>
       <c r="D52">
-        <v>1188.6</v>
+        <v>2032.7</v>
       </c>
       <c r="E52">
-        <v>8.9</v>
+        <v>13.7</v>
       </c>
       <c r="F52">
-        <v>95.77</v>
+        <v>97.86</v>
       </c>
       <c r="G52">
-        <v>94.3</v>
+        <v>93.97</v>
       </c>
       <c r="H52">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="I52">
-        <v>0.59</v>
+        <v>0.33</v>
       </c>
       <c r="J52">
-        <v>1.47</v>
+        <v>3.89</v>
       </c>
       <c r="K52">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="L52">
-        <v>5.83</v>
+        <v>6.84</v>
       </c>
       <c r="M52">
-        <v>-1.83</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C53">
-        <v>657.5</v>
+        <v>398.65</v>
       </c>
       <c r="D53">
-        <v>661.2</v>
+        <v>401.25</v>
       </c>
       <c r="E53">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="F53">
-        <v>96.13</v>
+        <v>95.62</v>
       </c>
       <c r="G53">
-        <v>94.06999999999999</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="H53">
         <v>0.75</v>
       </c>
       <c r="I53">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="J53">
-        <v>2.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K53">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="L53">
-        <v>5.56</v>
+        <v>2.57</v>
       </c>
       <c r="M53">
-        <v>-2.35</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C54">
-        <v>3985.2</v>
+        <v>312.6</v>
       </c>
       <c r="D54">
-        <v>3995</v>
+        <v>314.35</v>
       </c>
       <c r="E54">
-        <v>9.800000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="F54">
-        <v>90.03</v>
+        <v>98.02</v>
       </c>
       <c r="G54">
-        <v>87.04000000000001</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="H54">
-        <v>0.44</v>
+        <v>0.74</v>
       </c>
       <c r="I54">
-        <v>-0.2</v>
+        <v>0.55</v>
       </c>
       <c r="J54">
-        <v>2.99</v>
+        <v>3.78</v>
       </c>
       <c r="K54">
-        <v>0.63</v>
+        <v>0.19</v>
       </c>
       <c r="L54">
-        <v>6.03</v>
+        <v>6.93</v>
       </c>
       <c r="M54">
-        <v>-2.28</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="C55">
-        <v>1809.8</v>
+        <v>959.65</v>
       </c>
       <c r="D55">
-        <v>1816.6</v>
+        <v>965.2</v>
       </c>
       <c r="E55">
-        <v>6.8</v>
+        <v>5.55</v>
       </c>
       <c r="F55">
-        <v>94.5</v>
+        <v>93.59</v>
       </c>
       <c r="G55">
-        <v>91.33</v>
+        <v>89.83</v>
       </c>
       <c r="H55">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="I55">
-        <v>0.41</v>
+        <v>0.53</v>
       </c>
       <c r="J55">
-        <v>3.17</v>
+        <v>3.77</v>
       </c>
       <c r="K55">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="L55">
-        <v>13.75</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>1.21</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C56">
-        <v>1187.7</v>
+        <v>657.5</v>
       </c>
       <c r="D56">
-        <v>1195</v>
+        <v>661.2</v>
       </c>
       <c r="E56">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="F56">
-        <v>95.31999999999999</v>
+        <v>96.13</v>
       </c>
       <c r="G56">
-        <v>89.94</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="H56">
-        <v>0.46</v>
+        <v>0.75</v>
       </c>
       <c r="I56">
-        <v>0.14</v>
+        <v>0.58</v>
       </c>
       <c r="J56">
-        <v>5.38</v>
+        <v>2.06</v>
       </c>
       <c r="K56">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="L56">
-        <v>3.62</v>
+        <v>5.56</v>
       </c>
       <c r="M56">
-        <v>-7.08</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C57">
-        <v>1522.1</v>
+        <v>1417.9</v>
       </c>
       <c r="D57">
-        <v>1529.4</v>
+        <v>1427.7</v>
       </c>
       <c r="E57">
-        <v>7.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F57">
-        <v>95.31</v>
+        <v>97.91</v>
       </c>
       <c r="G57">
-        <v>93.55</v>
+        <v>92.92</v>
       </c>
       <c r="H57">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I57">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J57">
-        <v>1.76</v>
+        <v>4.99</v>
       </c>
       <c r="K57">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="L57">
-        <v>9.890000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="M57">
-        <v>5.19</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="C58">
-        <v>3057.9</v>
+        <v>178.46</v>
       </c>
       <c r="D58">
-        <v>3073.1</v>
+        <v>179.54</v>
       </c>
       <c r="E58">
-        <v>15.2</v>
+        <v>1.08</v>
       </c>
       <c r="F58">
-        <v>95.67</v>
+        <v>96.17</v>
       </c>
       <c r="G58">
-        <v>91.77</v>
+        <v>92.23999999999999</v>
       </c>
       <c r="H58">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="I58">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="J58">
-        <v>3.9</v>
+        <v>3.94</v>
       </c>
       <c r="K58">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="L58">
-        <v>5.87</v>
+        <v>1.23</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>1447.4</v>
+        <v>2509.3</v>
       </c>
       <c r="D59">
-        <v>1455.2</v>
+        <v>2519.4</v>
       </c>
       <c r="E59">
-        <v>7.8</v>
+        <v>10.1</v>
       </c>
       <c r="F59">
-        <v>96.09</v>
+        <v>94.63</v>
       </c>
       <c r="G59">
-        <v>88.86</v>
+        <v>90.55</v>
       </c>
       <c r="H59">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="I59">
-        <v>0.5600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="J59">
-        <v>7.23</v>
+        <v>4.08</v>
       </c>
       <c r="K59">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="L59">
-        <v>3.36</v>
+        <v>6.78</v>
       </c>
       <c r="M59">
-        <v>3.27</v>
+        <v>14.61</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C60">
-        <v>242.38</v>
+        <v>334.6</v>
       </c>
       <c r="D60">
-        <v>242.99</v>
+        <v>336.4</v>
       </c>
       <c r="E60">
-        <v>0.61</v>
+        <v>1.8</v>
       </c>
       <c r="F60">
-        <v>95.02</v>
+        <v>96.37</v>
       </c>
       <c r="G60">
-        <v>91.27</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="H60">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I60">
-        <v>-0.16</v>
+        <v>0.46</v>
       </c>
       <c r="J60">
-        <v>3.75</v>
+        <v>3.04</v>
       </c>
       <c r="K60">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="L60">
-        <v>1.26</v>
+        <v>2.8</v>
       </c>
       <c r="M60">
-        <v>1.34</v>
+        <v>-9.65</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="C61">
-        <v>242.38</v>
+        <v>225.92</v>
       </c>
       <c r="D61">
-        <v>242.99</v>
+        <v>227.36</v>
       </c>
       <c r="E61">
-        <v>0.61</v>
+        <v>1.44</v>
       </c>
       <c r="F61">
-        <v>95.02</v>
+        <v>93.44</v>
       </c>
       <c r="G61">
-        <v>91.27</v>
+        <v>91.63</v>
       </c>
       <c r="H61">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="I61">
-        <v>-0.16</v>
+        <v>0.44</v>
       </c>
       <c r="J61">
-        <v>3.75</v>
+        <v>1.81</v>
       </c>
       <c r="K61">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="L61">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="M61">
-        <v>1.34</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="C62">
-        <v>4285.6</v>
+        <v>1702</v>
       </c>
       <c r="D62">
-        <v>4315.2</v>
+        <v>1712.6</v>
       </c>
       <c r="E62">
-        <v>29.6</v>
+        <v>10.6</v>
       </c>
       <c r="F62">
-        <v>94.95</v>
+        <v>97.28</v>
       </c>
       <c r="G62">
-        <v>90.31999999999999</v>
+        <v>87.58</v>
       </c>
       <c r="H62">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="I62">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="J62">
-        <v>4.62</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K62">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="L62">
-        <v>9.15</v>
+        <v>9.42</v>
       </c>
       <c r="M62">
-        <v>0.6</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="C63">
-        <v>4063.8</v>
+        <v>1003.55</v>
       </c>
       <c r="D63">
-        <v>4088.3</v>
+        <v>1008</v>
       </c>
       <c r="E63">
-        <v>24.5</v>
+        <v>4.45</v>
       </c>
       <c r="F63">
-        <v>89.86</v>
+        <v>98.3</v>
       </c>
       <c r="G63">
-        <v>83.84</v>
+        <v>95</v>
       </c>
       <c r="H63">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I63">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="J63">
-        <v>6.02</v>
+        <v>3.3</v>
       </c>
       <c r="K63">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="L63">
-        <v>0.04</v>
+        <v>5.53</v>
       </c>
       <c r="M63">
-        <v>0.19</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C64">
-        <v>13853</v>
+        <v>2932.9</v>
       </c>
       <c r="D64">
-        <v>13947</v>
+        <v>2954.8</v>
       </c>
       <c r="E64">
-        <v>94</v>
+        <v>21.9</v>
       </c>
       <c r="F64">
-        <v>98.17</v>
+        <v>99.05</v>
       </c>
       <c r="G64">
-        <v>92.44</v>
+        <v>97.72</v>
       </c>
       <c r="H64">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="I64">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="J64">
-        <v>5.73</v>
+        <v>1.33</v>
       </c>
       <c r="K64">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="L64">
-        <v>3.95</v>
+        <v>6.38</v>
       </c>
       <c r="M64">
-        <v>-4.23</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="C65">
-        <v>1777</v>
+        <v>1517.6</v>
       </c>
       <c r="D65">
-        <v>1789.5</v>
+        <v>1526.5</v>
       </c>
       <c r="E65">
-        <v>12.5</v>
+        <v>8.9</v>
       </c>
       <c r="F65">
-        <v>98.45</v>
+        <v>95.75</v>
       </c>
       <c r="G65">
-        <v>92.16</v>
+        <v>91.83</v>
       </c>
       <c r="H65">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="I65">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="J65">
-        <v>6.28</v>
+        <v>3.92</v>
       </c>
       <c r="K65">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="L65">
-        <v>5.39</v>
+        <v>1.63</v>
       </c>
       <c r="M65">
-        <v>-4.42</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="C66">
-        <v>334.6</v>
+        <v>1351.8</v>
       </c>
       <c r="D66">
-        <v>336.4</v>
+        <v>1360.5</v>
       </c>
       <c r="E66">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F66">
-        <v>96.37</v>
+        <v>97.81</v>
       </c>
       <c r="G66">
-        <v>93.31999999999999</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="H66">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="I66">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="J66">
-        <v>3.04</v>
+        <v>3.62</v>
       </c>
       <c r="K66">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="L66">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="M66">
-        <v>-9.65</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C67">
-        <v>92.69</v>
+        <v>1179.7</v>
       </c>
       <c r="D67">
-        <v>93.25</v>
+        <v>1188.6</v>
       </c>
       <c r="E67">
-        <v>0.5600000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="F67">
-        <v>97.22</v>
+        <v>95.77</v>
       </c>
       <c r="G67">
-        <v>94.04000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="H67">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="I67">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="J67">
-        <v>3.18</v>
+        <v>1.47</v>
       </c>
       <c r="K67">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="L67">
-        <v>6.3</v>
+        <v>5.83</v>
       </c>
       <c r="M67">
-        <v>12.43</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C68">
-        <v>2932.9</v>
+        <v>4285.6</v>
       </c>
       <c r="D68">
-        <v>2954.8</v>
+        <v>4315.2</v>
       </c>
       <c r="E68">
-        <v>21.9</v>
+        <v>29.6</v>
       </c>
       <c r="F68">
-        <v>99.05</v>
+        <v>94.95</v>
       </c>
       <c r="G68">
-        <v>97.72</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="H68">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="I68">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
       <c r="J68">
-        <v>1.33</v>
+        <v>4.62</v>
       </c>
       <c r="K68">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="L68">
-        <v>6.38</v>
+        <v>9.15</v>
       </c>
       <c r="M68">
-        <v>-8.390000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C69">
-        <v>75.66</v>
+        <v>417.9</v>
       </c>
       <c r="D69">
-        <v>76.02</v>
+        <v>420.45</v>
       </c>
       <c r="E69">
-        <v>0.36</v>
+        <v>2.55</v>
       </c>
       <c r="F69">
-        <v>97.41</v>
+        <v>96.48999999999999</v>
       </c>
       <c r="G69">
-        <v>94.76000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H69">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="I69">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="J69">
-        <v>2.64</v>
+        <v>4.6</v>
       </c>
       <c r="K69">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="L69">
-        <v>3.81</v>
+        <v>4.07</v>
       </c>
       <c r="M69">
-        <v>-6.54</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C70">
-        <v>741.75</v>
+        <v>147.52</v>
       </c>
       <c r="D70">
-        <v>746.4</v>
+        <v>148.56</v>
       </c>
       <c r="E70">
-        <v>4.65</v>
+        <v>1.04</v>
       </c>
       <c r="F70">
-        <v>94.86</v>
+        <v>87.27</v>
       </c>
       <c r="G70">
-        <v>93.19</v>
+        <v>82.98</v>
       </c>
       <c r="H70">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="I70">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J70">
-        <v>1.67</v>
+        <v>4.29</v>
       </c>
       <c r="K70">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="L70">
-        <v>2.98</v>
+        <v>5.98</v>
       </c>
       <c r="M70">
-        <v>-2.06</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="C71">
-        <v>210.61</v>
+        <v>1099.4</v>
       </c>
       <c r="D71">
-        <v>211.68</v>
+        <v>1106.5</v>
       </c>
       <c r="E71">
-        <v>1.07</v>
+        <v>7.1</v>
       </c>
       <c r="F71">
-        <v>95.93000000000001</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="G71">
-        <v>89.81999999999999</v>
+        <v>94.81</v>
       </c>
       <c r="H71">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="I71">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="J71">
-        <v>6.11</v>
+        <v>3.77</v>
       </c>
       <c r="K71">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="L71">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M71">
-        <v>-17.75</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>848.95</v>
+        <v>1450.2</v>
       </c>
       <c r="D72">
-        <v>853.7</v>
+        <v>1459.8</v>
       </c>
       <c r="E72">
-        <v>4.75</v>
+        <v>9.6</v>
       </c>
       <c r="F72">
-        <v>96.54000000000001</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="G72">
-        <v>94.89</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="H72">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
       <c r="I72">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="J72">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="K72">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="L72">
-        <v>11.42</v>
+        <v>6.13</v>
       </c>
       <c r="M72">
-        <v>-7.02</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="C73">
-        <v>502.45</v>
+        <v>385.9</v>
       </c>
       <c r="D73">
-        <v>505.85</v>
+        <v>387.75</v>
       </c>
       <c r="E73">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="F73">
-        <v>96.48</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="G73">
-        <v>94.52</v>
+        <v>95.03</v>
       </c>
       <c r="H73">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="I73">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="J73">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="K73">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="L73">
-        <v>7.87</v>
+        <v>12.54</v>
       </c>
       <c r="M73">
-        <v>0.44</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="C74">
-        <v>178.46</v>
+        <v>56.22</v>
       </c>
       <c r="D74">
-        <v>179.54</v>
+        <v>56.65</v>
       </c>
       <c r="E74">
-        <v>1.08</v>
+        <v>0.43</v>
       </c>
       <c r="F74">
-        <v>96.17</v>
+        <v>95.68000000000001</v>
       </c>
       <c r="G74">
-        <v>92.23999999999999</v>
+        <v>91.13</v>
       </c>
       <c r="H74">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="I74">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="J74">
-        <v>3.94</v>
+        <v>4.55</v>
       </c>
       <c r="K74">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="L74">
-        <v>1.23</v>
+        <v>2.13</v>
       </c>
       <c r="M74">
-        <v>0.99</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="C75">
-        <v>153.3</v>
+        <v>4725.4</v>
       </c>
       <c r="D75">
-        <v>154.14</v>
+        <v>4749.1</v>
       </c>
       <c r="E75">
-        <v>0.84</v>
+        <v>23.7</v>
       </c>
       <c r="F75">
-        <v>97.09</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="G75">
-        <v>87.92</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H75">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="I75">
-        <v>0.43</v>
+        <v>0.52</v>
       </c>
       <c r="J75">
-        <v>9.17</v>
+        <v>3.83</v>
       </c>
       <c r="K75">
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="L75">
-        <v>9.31</v>
+        <v>1.02</v>
       </c>
       <c r="M75">
-        <v>-12.13</v>
+        <v>-10.19</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="C76">
-        <v>151.47</v>
+        <v>2160.8</v>
       </c>
       <c r="D76">
-        <v>152.41</v>
+        <v>2176</v>
       </c>
       <c r="E76">
-        <v>0.9399999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="F76">
-        <v>94.26000000000001</v>
+        <v>95.81</v>
       </c>
       <c r="G76">
-        <v>85.69</v>
+        <v>92.97</v>
       </c>
       <c r="H76">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I76">
-        <v>-0.52</v>
+        <v>0.58</v>
       </c>
       <c r="J76">
-        <v>8.57</v>
+        <v>2.84</v>
       </c>
       <c r="K76">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="L76">
-        <v>1.86</v>
+        <v>8.44</v>
       </c>
       <c r="M76">
-        <v>-6.67</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C77">
-        <v>110.31</v>
+        <v>75.66</v>
       </c>
       <c r="D77">
-        <v>111.05</v>
+        <v>76.02</v>
       </c>
       <c r="E77">
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="F77">
-        <v>96.23999999999999</v>
+        <v>97.41</v>
       </c>
       <c r="G77">
-        <v>90.65000000000001</v>
+        <v>94.76000000000001</v>
       </c>
       <c r="H77">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="I77">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="J77">
-        <v>5.58</v>
+        <v>2.64</v>
       </c>
       <c r="K77">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="L77">
-        <v>3.02</v>
+        <v>3.81</v>
       </c>
       <c r="M77">
-        <v>6.6</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C78">
-        <v>852.9</v>
+        <v>4063.8</v>
       </c>
       <c r="D78">
-        <v>855.95</v>
+        <v>4088.3</v>
       </c>
       <c r="E78">
-        <v>3.05</v>
+        <v>24.5</v>
       </c>
       <c r="F78">
-        <v>94.33</v>
+        <v>89.86</v>
       </c>
       <c r="G78">
-        <v>88.58</v>
+        <v>83.84</v>
       </c>
       <c r="H78">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
       <c r="I78">
-        <v>-0.09</v>
+        <v>0.48</v>
       </c>
       <c r="J78">
-        <v>5.75</v>
+        <v>6.02</v>
       </c>
       <c r="K78">
-        <v>0.47</v>
+        <v>0.09</v>
       </c>
       <c r="L78">
-        <v>13.61</v>
+        <v>0.04</v>
       </c>
       <c r="M78">
-        <v>2.37</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="C79">
-        <v>121.13</v>
+        <v>1277.2</v>
       </c>
       <c r="D79">
-        <v>121.65</v>
+        <v>1286.6</v>
       </c>
       <c r="E79">
-        <v>0.52</v>
+        <v>9.4</v>
       </c>
       <c r="F79">
-        <v>96.73</v>
+        <v>95.53</v>
       </c>
       <c r="G79">
-        <v>92.31999999999999</v>
+        <v>90.06</v>
       </c>
       <c r="H79">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I79">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
       <c r="J79">
-        <v>4.42</v>
+        <v>5.47</v>
       </c>
       <c r="K79">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="L79">
-        <v>7.36</v>
+        <v>4.78</v>
       </c>
       <c r="M79">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C80">
-        <v>147.07</v>
+        <v>1492</v>
       </c>
       <c r="D80">
-        <v>147.81</v>
+        <v>1500.1</v>
       </c>
       <c r="E80">
-        <v>0.74</v>
+        <v>8.1</v>
       </c>
       <c r="F80">
-        <v>96.88</v>
+        <v>97.25</v>
       </c>
       <c r="G80">
-        <v>91.64</v>
+        <v>94.69</v>
       </c>
       <c r="H80">
-        <v>0.8</v>
+        <v>0.54</v>
       </c>
       <c r="I80">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
       <c r="J80">
-        <v>5.24</v>
+        <v>2.56</v>
       </c>
       <c r="K80">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="L80">
-        <v>6.18</v>
+        <v>1.63</v>
       </c>
       <c r="M80">
-        <v>3.93</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C81">
-        <v>5432</v>
+        <v>741.75</v>
       </c>
       <c r="D81">
-        <v>5470.5</v>
+        <v>746.4</v>
       </c>
       <c r="E81">
-        <v>38.5</v>
+        <v>4.65</v>
       </c>
       <c r="F81">
-        <v>97.64</v>
+        <v>94.86</v>
       </c>
       <c r="G81">
-        <v>93.5</v>
+        <v>93.19</v>
       </c>
       <c r="H81">
+        <v>0.73</v>
+      </c>
+      <c r="I81">
         <v>0.65</v>
       </c>
-      <c r="I81">
-        <v>0.06</v>
-      </c>
       <c r="J81">
-        <v>4.14</v>
+        <v>1.67</v>
       </c>
       <c r="K81">
-        <v>0.59</v>
+        <v>0.09</v>
       </c>
       <c r="L81">
-        <v>0.13</v>
+        <v>2.98</v>
       </c>
       <c r="M81">
-        <v>4.95</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="C82">
-        <v>1099.4</v>
+        <v>1936.8</v>
       </c>
       <c r="D82">
-        <v>1106.5</v>
+        <v>1944.5</v>
       </c>
       <c r="E82">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="F82">
-        <v>98.56999999999999</v>
+        <v>88.41</v>
       </c>
       <c r="G82">
-        <v>94.81</v>
+        <v>87.02</v>
       </c>
       <c r="H82">
         <v>0.68</v>
       </c>
       <c r="I82">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="J82">
-        <v>3.77</v>
+        <v>1.4</v>
       </c>
       <c r="K82">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="L82">
-        <v>1.43</v>
+        <v>8.16</v>
       </c>
       <c r="M82">
-        <v>9.880000000000001</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="C83">
-        <v>1568.1</v>
+        <v>3562</v>
       </c>
       <c r="D83">
-        <v>1575</v>
+        <v>3574.8</v>
       </c>
       <c r="E83">
-        <v>6.9</v>
+        <v>12.8</v>
       </c>
       <c r="F83">
-        <v>97.73999999999999</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="G83">
-        <v>93.73999999999999</v>
+        <v>89.06</v>
       </c>
       <c r="H83">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="I83">
         <v>0.4</v>
       </c>
       <c r="J83">
-        <v>4</v>
+        <v>6.94</v>
       </c>
       <c r="K83">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="L83">
-        <v>4.31</v>
+        <v>3.59</v>
       </c>
       <c r="M83">
-        <v>-3.86</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="C84">
-        <v>1289.4</v>
+        <v>1809.8</v>
       </c>
       <c r="D84">
-        <v>1297.2</v>
+        <v>1816.6</v>
       </c>
       <c r="E84">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="F84">
-        <v>89.15000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="G84">
-        <v>86.70999999999999</v>
+        <v>91.33</v>
       </c>
       <c r="H84">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="I84">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="J84">
-        <v>2.44</v>
+        <v>3.17</v>
       </c>
       <c r="K84">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L84">
-        <v>5.37</v>
+        <v>13.75</v>
       </c>
       <c r="M84">
-        <v>-4.13</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="C85">
-        <v>959.65</v>
+        <v>1777</v>
       </c>
       <c r="D85">
-        <v>965.2</v>
+        <v>1789.5</v>
       </c>
       <c r="E85">
-        <v>5.55</v>
+        <v>12.5</v>
       </c>
       <c r="F85">
-        <v>93.59</v>
+        <v>98.45</v>
       </c>
       <c r="G85">
-        <v>89.83</v>
+        <v>92.16</v>
       </c>
       <c r="H85">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="I85">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="J85">
-        <v>3.77</v>
+        <v>6.28</v>
       </c>
       <c r="K85">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>5.39</v>
       </c>
       <c r="M85">
-        <v>1.87</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C86">
-        <v>202.1</v>
+        <v>774.05</v>
       </c>
       <c r="D86">
-        <v>203.7</v>
+        <v>779.25</v>
       </c>
       <c r="E86">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="F86">
-        <v>94.2</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="G86">
-        <v>87.28</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="H86">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="I86">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="J86">
-        <v>6.92</v>
+        <v>3.56</v>
       </c>
       <c r="K86">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="L86">
-        <v>5.72</v>
+        <v>8.56</v>
       </c>
       <c r="M86">
-        <v>-8.529999999999999</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="C87">
-        <v>1687</v>
+        <v>565.3</v>
       </c>
       <c r="D87">
-        <v>1696.8</v>
+        <v>568.4</v>
       </c>
       <c r="E87">
-        <v>9.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="F87">
-        <v>95.53</v>
+        <v>95.34</v>
       </c>
       <c r="G87">
-        <v>90.76000000000001</v>
+        <v>94.33</v>
       </c>
       <c r="H87">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="I87">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="J87">
-        <v>4.77</v>
+        <v>1.01</v>
       </c>
       <c r="K87">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="L87">
-        <v>5.81</v>
+        <v>12.54</v>
       </c>
       <c r="M87">
-        <v>5.32</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C88">
-        <v>1001.25</v>
+        <v>210.61</v>
       </c>
       <c r="D88">
-        <v>1007.75</v>
+        <v>211.68</v>
       </c>
       <c r="E88">
-        <v>6.5</v>
+        <v>1.07</v>
       </c>
       <c r="F88">
-        <v>97.26000000000001</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="G88">
-        <v>94.7</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="H88">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I88">
-        <v>0.29</v>
+        <v>0.51</v>
       </c>
       <c r="J88">
-        <v>2.56</v>
+        <v>6.11</v>
       </c>
       <c r="K88">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="L88">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="M88">
-        <v>-7.27</v>
+        <v>-17.75</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C89">
-        <v>175.62</v>
+        <v>513.8</v>
       </c>
       <c r="D89">
-        <v>176.46</v>
+        <v>516.25</v>
       </c>
       <c r="E89">
-        <v>0.84</v>
+        <v>2.45</v>
       </c>
       <c r="F89">
-        <v>96.37</v>
+        <v>97.55</v>
       </c>
       <c r="G89">
-        <v>92.95999999999999</v>
+        <v>92.19</v>
       </c>
       <c r="H89">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="I89">
-        <v>0.38</v>
+        <v>0.53</v>
       </c>
       <c r="J89">
-        <v>3.4</v>
+        <v>5.36</v>
       </c>
       <c r="K89">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="L89">
-        <v>8.27</v>
+        <v>13.7</v>
       </c>
       <c r="M89">
-        <v>-14.8</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="C90">
-        <v>1003.55</v>
+        <v>307.95</v>
       </c>
       <c r="D90">
-        <v>1008</v>
+        <v>309.9</v>
       </c>
       <c r="E90">
-        <v>4.45</v>
+        <v>1.95</v>
       </c>
       <c r="F90">
-        <v>98.3</v>
+        <v>97.01000000000001</v>
       </c>
       <c r="G90">
-        <v>95</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="H90">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="I90">
-        <v>0.45</v>
+        <v>0.58</v>
       </c>
       <c r="J90">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="K90">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="L90">
-        <v>5.53</v>
+        <v>5.03</v>
       </c>
       <c r="M90">
-        <v>-1.37</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="C91">
-        <v>2160.8</v>
+        <v>92.69</v>
       </c>
       <c r="D91">
-        <v>2176</v>
+        <v>93.25</v>
       </c>
       <c r="E91">
-        <v>15.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F91">
-        <v>95.81</v>
+        <v>97.22</v>
       </c>
       <c r="G91">
-        <v>92.97</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="H91">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I91">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="J91">
-        <v>2.84</v>
+        <v>3.18</v>
       </c>
       <c r="K91">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="L91">
-        <v>8.44</v>
+        <v>6.3</v>
       </c>
       <c r="M91">
-        <v>-4.21</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="C92">
-        <v>774.05</v>
+        <v>921.2</v>
       </c>
       <c r="D92">
-        <v>779.25</v>
+        <v>926.6</v>
       </c>
       <c r="E92">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F92">
-        <v>94.70999999999999</v>
+        <v>97.78</v>
       </c>
       <c r="G92">
-        <v>91.15000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="H92">
+        <v>0.68</v>
+      </c>
+      <c r="I92">
         <v>0.63</v>
       </c>
-      <c r="I92">
-        <v>0.57</v>
-      </c>
       <c r="J92">
-        <v>3.56</v>
+        <v>1.57</v>
       </c>
       <c r="K92">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L92">
-        <v>8.56</v>
+        <v>5.61</v>
       </c>
       <c r="M92">
-        <v>-6.81</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="C93">
-        <v>2296.6</v>
+        <v>413.55</v>
       </c>
       <c r="D93">
-        <v>2310.9</v>
+        <v>415.95</v>
       </c>
       <c r="E93">
-        <v>14.3</v>
+        <v>2.4</v>
       </c>
       <c r="F93">
-        <v>96.11</v>
+        <v>95.83</v>
       </c>
       <c r="G93">
-        <v>95.83</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H93">
-        <v>0.65</v>
+        <v>0.59</v>
       </c>
       <c r="I93">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="J93">
-        <v>0.28</v>
+        <v>2.23</v>
       </c>
       <c r="K93">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L93">
-        <v>16.65</v>
+        <v>2.38</v>
       </c>
       <c r="M93">
-        <v>-8.82</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="C94">
-        <v>225.92</v>
+        <v>106.98</v>
       </c>
       <c r="D94">
-        <v>227.36</v>
+        <v>107.49</v>
       </c>
       <c r="E94">
-        <v>1.44</v>
+        <v>0.51</v>
       </c>
       <c r="F94">
-        <v>93.44</v>
+        <v>97.92</v>
       </c>
       <c r="G94">
-        <v>91.63</v>
+        <v>95.81</v>
       </c>
       <c r="H94">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="I94">
-        <v>0.44</v>
+        <v>0.57</v>
       </c>
       <c r="J94">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="K94">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="L94">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="M94">
-        <v>2.14</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C95">
-        <v>1169</v>
+        <v>110.31</v>
       </c>
       <c r="D95">
-        <v>1175.2</v>
+        <v>111.05</v>
       </c>
       <c r="E95">
-        <v>6.2</v>
+        <v>0.74</v>
       </c>
       <c r="F95">
-        <v>97.12</v>
+        <v>96.23999999999999</v>
       </c>
       <c r="G95">
-        <v>92.78</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="H95">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="I95">
-        <v>0.15</v>
+        <v>0.58</v>
       </c>
       <c r="J95">
-        <v>4.34</v>
+        <v>5.58</v>
       </c>
       <c r="K95">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="L95">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="M95">
-        <v>-0.75</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="C96">
-        <v>1708.1</v>
+        <v>1447.4</v>
       </c>
       <c r="D96">
-        <v>1716.2</v>
+        <v>1455.2</v>
       </c>
       <c r="E96">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="F96">
-        <v>92.56</v>
+        <v>96.09</v>
       </c>
       <c r="G96">
-        <v>92.37</v>
+        <v>88.86</v>
       </c>
       <c r="H96">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="I96">
-        <v>-0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J96">
-        <v>0.19</v>
+        <v>7.23</v>
       </c>
       <c r="K96">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="L96">
-        <v>7.96</v>
+        <v>3.36</v>
       </c>
       <c r="M96">
-        <v>-4.6</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="C97">
-        <v>1702</v>
+        <v>121.13</v>
       </c>
       <c r="D97">
-        <v>1712.6</v>
+        <v>121.65</v>
       </c>
       <c r="E97">
-        <v>10.6</v>
+        <v>0.52</v>
       </c>
       <c r="F97">
-        <v>97.28</v>
+        <v>96.73</v>
       </c>
       <c r="G97">
-        <v>87.58</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="H97">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="I97">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="J97">
-        <v>9.699999999999999</v>
+        <v>4.42</v>
       </c>
       <c r="K97">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="L97">
-        <v>9.42</v>
+        <v>7.36</v>
       </c>
       <c r="M97">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="C98">
-        <v>256.86</v>
+        <v>1775</v>
       </c>
       <c r="D98">
-        <v>257.62</v>
+        <v>1787.1</v>
       </c>
       <c r="E98">
-        <v>0.76</v>
+        <v>12.1</v>
       </c>
       <c r="F98">
-        <v>94.94</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="G98">
-        <v>85.77</v>
+        <v>92.77</v>
       </c>
       <c r="H98">
-        <v>0.11</v>
+        <v>0.51</v>
       </c>
       <c r="I98">
-        <v>-0.88</v>
+        <v>0.49</v>
       </c>
       <c r="J98">
-        <v>9.16</v>
+        <v>3.94</v>
       </c>
       <c r="K98">
-        <v>0.99</v>
+        <v>0.02</v>
       </c>
       <c r="L98">
-        <v>10.53</v>
+        <v>4.29</v>
       </c>
       <c r="M98">
-        <v>5.29</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="C99">
-        <v>385.9</v>
+        <v>502.45</v>
       </c>
       <c r="D99">
-        <v>387.75</v>
+        <v>505.85</v>
       </c>
       <c r="E99">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="F99">
-        <v>97.29000000000001</v>
+        <v>96.48</v>
       </c>
       <c r="G99">
-        <v>95.03</v>
+        <v>94.52</v>
       </c>
       <c r="H99">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="I99">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="J99">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="K99">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="L99">
-        <v>12.54</v>
+        <v>7.87</v>
       </c>
       <c r="M99">
-        <v>4.59</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C100">
-        <v>40915</v>
+        <v>2296.6</v>
       </c>
       <c r="D100">
-        <v>40875</v>
+        <v>2310.9</v>
       </c>
       <c r="E100">
-        <v>-40</v>
+        <v>14.3</v>
       </c>
       <c r="F100">
-        <v>95.69</v>
+        <v>96.11</v>
       </c>
       <c r="G100">
-        <v>91.33</v>
+        <v>95.83</v>
       </c>
       <c r="H100">
-        <v>-0.11</v>
+        <v>0.65</v>
       </c>
       <c r="I100">
-        <v>-1.08</v>
+        <v>0.64</v>
       </c>
       <c r="J100">
-        <v>4.36</v>
+        <v>0.28</v>
       </c>
       <c r="K100">
-        <v>0.97</v>
+        <v>0.01</v>
       </c>
       <c r="L100">
-        <v>0.57</v>
+        <v>16.65</v>
       </c>
       <c r="M100">
-        <v>-5.82</v>
+        <v>-8.82</v>
       </c>
     </row>
   </sheetData>
@@ -13994,16 +14048,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -14053,330 +14125,330 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C6">
-        <v>140.1</v>
+        <v>276.35</v>
       </c>
       <c r="D6">
-        <v>137.74</v>
+        <v>278.05</v>
       </c>
       <c r="E6">
-        <v>-2.36</v>
+        <v>1.7</v>
       </c>
       <c r="F6">
-        <v>92.65000000000001</v>
+        <v>96.11</v>
       </c>
       <c r="G6">
-        <v>92.28</v>
+        <v>87.11</v>
       </c>
       <c r="H6">
-        <v>-1.94</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I6">
-        <v>0.22</v>
+        <v>0.57</v>
       </c>
       <c r="J6">
-        <v>0.38</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-2.16</v>
+        <v>-0.01</v>
       </c>
       <c r="L6">
-        <v>-1.8</v>
+        <v>-1.58</v>
       </c>
       <c r="M6">
-        <v>4.09</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C7">
-        <v>3814.2</v>
+        <v>28585</v>
       </c>
       <c r="D7">
-        <v>3829.1</v>
+        <v>28540</v>
       </c>
       <c r="E7">
-        <v>14.9</v>
+        <v>-45</v>
       </c>
       <c r="F7">
-        <v>95.98999999999999</v>
+        <v>95.66</v>
       </c>
       <c r="G7">
-        <v>93.72</v>
+        <v>89.41</v>
       </c>
       <c r="H7">
-        <v>0.39</v>
+        <v>-0.19</v>
       </c>
       <c r="I7">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="J7">
-        <v>2.27</v>
+        <v>6.25</v>
       </c>
       <c r="K7">
-        <v>-0.04</v>
+        <v>-0.54</v>
       </c>
       <c r="L7">
-        <v>-9.609999999999999</v>
+        <v>-2.32</v>
       </c>
       <c r="M7">
-        <v>-10.14</v>
+        <v>-7.45</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C8">
-        <v>1004.2</v>
+        <v>328.85</v>
       </c>
       <c r="D8">
-        <v>1009.8</v>
+        <v>320.55</v>
       </c>
       <c r="E8">
-        <v>5.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>96.59999999999999</v>
+        <v>97.08</v>
       </c>
       <c r="G8">
-        <v>93.75</v>
+        <v>92.72</v>
       </c>
       <c r="H8">
-        <v>0.61</v>
+        <v>-2.4</v>
       </c>
       <c r="I8">
-        <v>0.7</v>
+        <v>-1.13</v>
       </c>
       <c r="J8">
-        <v>2.84</v>
+        <v>4.36</v>
       </c>
       <c r="K8">
-        <v>-0.09</v>
+        <v>-1.27</v>
       </c>
       <c r="L8">
-        <v>-2.21</v>
+        <v>-3.12</v>
       </c>
       <c r="M8">
-        <v>0.74</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C9">
-        <v>339.15</v>
+        <v>2497.1</v>
       </c>
       <c r="D9">
-        <v>338.65</v>
+        <v>2492</v>
       </c>
       <c r="E9">
-        <v>-0.5</v>
+        <v>-5.1</v>
       </c>
       <c r="F9">
-        <v>92.64</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="G9">
-        <v>91.3</v>
+        <v>89.89</v>
       </c>
       <c r="H9">
-        <v>-0.18</v>
+        <v>-0.39</v>
       </c>
       <c r="I9">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="J9">
-        <v>1.34</v>
+        <v>4.29</v>
       </c>
       <c r="K9">
-        <v>-0.5600000000000001</v>
+        <v>-0.85</v>
       </c>
       <c r="L9">
-        <v>-0.38</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="M9">
-        <v>-4.56</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>2497.1</v>
+        <v>1004.2</v>
       </c>
       <c r="D10">
-        <v>2492</v>
+        <v>1009.8</v>
       </c>
       <c r="E10">
-        <v>-5.1</v>
+        <v>5.6</v>
       </c>
       <c r="F10">
-        <v>94.18000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G10">
-        <v>89.89</v>
+        <v>93.75</v>
       </c>
       <c r="H10">
-        <v>-0.39</v>
+        <v>0.61</v>
       </c>
       <c r="I10">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="J10">
-        <v>4.29</v>
+        <v>2.84</v>
       </c>
       <c r="K10">
-        <v>-0.85</v>
+        <v>-0.09</v>
       </c>
       <c r="L10">
-        <v>-0.6899999999999999</v>
+        <v>-2.21</v>
       </c>
       <c r="M10">
-        <v>-3.32</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C11">
-        <v>276.35</v>
+        <v>412.75</v>
       </c>
       <c r="D11">
-        <v>278.05</v>
+        <v>412.2</v>
       </c>
       <c r="E11">
-        <v>1.7</v>
+        <v>-0.55</v>
       </c>
       <c r="F11">
-        <v>96.11</v>
+        <v>87.11</v>
       </c>
       <c r="G11">
-        <v>87.11</v>
+        <v>84.31</v>
       </c>
       <c r="H11">
-        <v>0.5600000000000001</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I11">
-        <v>0.57</v>
+        <v>0.32</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="K11">
-        <v>-0.01</v>
+        <v>-0.39</v>
       </c>
       <c r="L11">
-        <v>-1.58</v>
+        <v>-0.25</v>
       </c>
       <c r="M11">
-        <v>0.98</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <v>328.85</v>
+        <v>3814.2</v>
       </c>
       <c r="D12">
-        <v>320.55</v>
+        <v>3829.1</v>
       </c>
       <c r="E12">
-        <v>-8.300000000000001</v>
+        <v>14.9</v>
       </c>
       <c r="F12">
-        <v>97.08</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="G12">
-        <v>92.72</v>
+        <v>93.72</v>
       </c>
       <c r="H12">
-        <v>-2.4</v>
+        <v>0.39</v>
       </c>
       <c r="I12">
-        <v>-1.13</v>
+        <v>0.43</v>
       </c>
       <c r="J12">
-        <v>4.36</v>
+        <v>2.27</v>
       </c>
       <c r="K12">
-        <v>-1.27</v>
+        <v>-0.04</v>
       </c>
       <c r="L12">
-        <v>-3.12</v>
+        <v>-9.609999999999999</v>
       </c>
       <c r="M12">
-        <v>-1.81</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="C13">
-        <v>28585</v>
+        <v>339.15</v>
       </c>
       <c r="D13">
-        <v>28540</v>
+        <v>338.65</v>
       </c>
       <c r="E13">
-        <v>-45</v>
+        <v>-0.5</v>
       </c>
       <c r="F13">
-        <v>95.66</v>
+        <v>92.64</v>
       </c>
       <c r="G13">
-        <v>89.41</v>
+        <v>91.3</v>
       </c>
       <c r="H13">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="I13">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="J13">
-        <v>6.25</v>
+        <v>1.34</v>
       </c>
       <c r="K13">
-        <v>-0.54</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L13">
-        <v>-2.32</v>
+        <v>-0.38</v>
       </c>
       <c r="M13">
-        <v>-7.45</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -14422,84 +14494,84 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C15">
-        <v>471.2</v>
+        <v>2406.5</v>
       </c>
       <c r="D15">
-        <v>473.95</v>
+        <v>2416.8</v>
       </c>
       <c r="E15">
-        <v>2.75</v>
+        <v>10.3</v>
       </c>
       <c r="F15">
-        <v>94.52</v>
+        <v>94.20999999999999</v>
       </c>
       <c r="G15">
-        <v>94.28</v>
+        <v>93.53</v>
       </c>
       <c r="H15">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>0.47</v>
       </c>
       <c r="J15">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
       <c r="K15">
-        <v>-0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="L15">
-        <v>-2.33</v>
+        <v>-1.2</v>
       </c>
       <c r="M15">
-        <v>-1.83</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>412.75</v>
+        <v>140.1</v>
       </c>
       <c r="D16">
-        <v>412.2</v>
+        <v>137.74</v>
       </c>
       <c r="E16">
-        <v>-0.55</v>
+        <v>-2.36</v>
       </c>
       <c r="F16">
-        <v>87.11</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="G16">
-        <v>84.31</v>
+        <v>92.28</v>
       </c>
       <c r="H16">
-        <v>-0.07000000000000001</v>
+        <v>-1.94</v>
       </c>
       <c r="I16">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="J16">
-        <v>2.8</v>
+        <v>0.38</v>
       </c>
       <c r="K16">
-        <v>-0.39</v>
+        <v>-2.16</v>
       </c>
       <c r="L16">
-        <v>-0.25</v>
+        <v>-1.8</v>
       </c>
       <c r="M16">
-        <v>2.01</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -14507,81 +14579,81 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C17">
-        <v>2406.5</v>
+        <v>3576.5</v>
       </c>
       <c r="D17">
-        <v>2416.8</v>
+        <v>3593.2</v>
       </c>
       <c r="E17">
-        <v>10.3</v>
+        <v>16.7</v>
       </c>
       <c r="F17">
-        <v>94.20999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="G17">
-        <v>93.53</v>
+        <v>94.88</v>
       </c>
       <c r="H17">
+        <v>0.36</v>
+      </c>
+      <c r="I17">
+        <v>0.46</v>
+      </c>
+      <c r="J17">
         <v>0.33</v>
       </c>
-      <c r="I17">
-        <v>0.47</v>
-      </c>
-      <c r="J17">
-        <v>0.68</v>
-      </c>
       <c r="K17">
-        <v>-0.14</v>
+        <v>-0.1</v>
       </c>
       <c r="L17">
-        <v>-1.2</v>
+        <v>-0.74</v>
       </c>
       <c r="M17">
-        <v>-6.84</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="C18">
-        <v>3576.5</v>
+        <v>471.2</v>
       </c>
       <c r="D18">
-        <v>3593.2</v>
+        <v>473.95</v>
       </c>
       <c r="E18">
-        <v>16.7</v>
+        <v>2.75</v>
       </c>
       <c r="F18">
-        <v>95.2</v>
+        <v>94.52</v>
       </c>
       <c r="G18">
-        <v>94.88</v>
+        <v>94.28</v>
       </c>
       <c r="H18">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="I18">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="J18">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="K18">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="L18">
-        <v>-0.74</v>
+        <v>-2.33</v>
       </c>
       <c r="M18">
-        <v>4.72</v>
+        <v>-1.83</v>
       </c>
     </row>
   </sheetData>
@@ -14635,16 +14707,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -14693,372 +14783,372 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6">
+        <v>9116.5</v>
+      </c>
+      <c r="D6">
+        <v>9180</v>
+      </c>
+      <c r="E6">
+        <v>63.5</v>
+      </c>
+      <c r="F6">
+        <v>87.84999999999999</v>
+      </c>
+      <c r="G6">
+        <v>88.73999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.71</v>
+      </c>
+      <c r="I6">
+        <v>0.47</v>
+      </c>
+      <c r="J6">
+        <v>-0.89</v>
+      </c>
+      <c r="K6">
+        <v>0.23</v>
+      </c>
+      <c r="L6">
+        <v>16.94</v>
+      </c>
+      <c r="M6">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>187.26</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>189.15</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>1.89</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>93.27</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>96.23999999999999</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>1.26</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0.55</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-2.97</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>0.71</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>16.41</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>-18.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7">
-        <v>7510</v>
-      </c>
-      <c r="D7">
-        <v>7559.5</v>
-      </c>
-      <c r="E7">
-        <v>49.5</v>
-      </c>
-      <c r="F7">
-        <v>77.79000000000001</v>
-      </c>
-      <c r="G7">
-        <v>90.88</v>
-      </c>
-      <c r="H7">
-        <v>0.77</v>
-      </c>
-      <c r="I7">
-        <v>0.53</v>
-      </c>
-      <c r="J7">
-        <v>-13.08</v>
-      </c>
-      <c r="K7">
-        <v>0.24</v>
-      </c>
-      <c r="L7">
-        <v>3.07</v>
-      </c>
-      <c r="M7">
-        <v>-0.95</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="C8">
-        <v>3717</v>
+        <v>141.09</v>
       </c>
       <c r="D8">
-        <v>3734.4</v>
+        <v>141.81</v>
       </c>
       <c r="E8">
-        <v>17.4</v>
+        <v>0.72</v>
       </c>
       <c r="F8">
-        <v>89.59</v>
+        <v>93.11</v>
       </c>
       <c r="G8">
-        <v>94.34</v>
+        <v>95.72</v>
       </c>
       <c r="H8">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="I8">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="J8">
-        <v>-4.75</v>
+        <v>-2.61</v>
       </c>
       <c r="K8">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="L8">
-        <v>10.4</v>
+        <v>14.33</v>
       </c>
       <c r="M8">
-        <v>3.72</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="C9">
-        <v>1271</v>
+        <v>2090.2</v>
       </c>
       <c r="D9">
-        <v>1278.6</v>
+        <v>2099</v>
       </c>
       <c r="E9">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F9">
-        <v>89.28</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="G9">
-        <v>93.98999999999999</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="H9">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I9">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="J9">
-        <v>-4.71</v>
+        <v>-2.67</v>
       </c>
       <c r="K9">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="L9">
-        <v>10.24</v>
+        <v>11.28</v>
       </c>
       <c r="M9">
-        <v>-0.61</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C10">
-        <v>2140.2</v>
+        <v>3717</v>
       </c>
       <c r="D10">
-        <v>2152</v>
+        <v>3734.4</v>
       </c>
       <c r="E10">
-        <v>11.8</v>
+        <v>17.4</v>
       </c>
       <c r="F10">
-        <v>88.22</v>
+        <v>89.59</v>
       </c>
       <c r="G10">
-        <v>93.44</v>
+        <v>94.34</v>
       </c>
       <c r="H10">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I10">
-        <v>0.5600000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="J10">
-        <v>-5.22</v>
+        <v>-4.75</v>
       </c>
       <c r="K10">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="L10">
-        <v>6.67</v>
+        <v>10.4</v>
       </c>
       <c r="M10">
-        <v>-5.14</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C11">
-        <v>1072.75</v>
+        <v>1271</v>
       </c>
       <c r="D11">
-        <v>1080.6</v>
+        <v>1278.6</v>
       </c>
       <c r="E11">
-        <v>7.85</v>
+        <v>7.6</v>
       </c>
       <c r="F11">
-        <v>95.55</v>
+        <v>89.28</v>
       </c>
       <c r="G11">
-        <v>96.72</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="H11">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I11">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="J11">
-        <v>-1.18</v>
+        <v>-4.71</v>
       </c>
       <c r="K11">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="L11">
-        <v>7.39</v>
+        <v>10.24</v>
       </c>
       <c r="M11">
-        <v>-8.07</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="C12">
-        <v>9116.5</v>
+        <v>1246.3</v>
       </c>
       <c r="D12">
-        <v>9180</v>
+        <v>1252.2</v>
       </c>
       <c r="E12">
-        <v>63.5</v>
+        <v>5.9</v>
       </c>
       <c r="F12">
-        <v>87.84999999999999</v>
+        <v>87.27</v>
       </c>
       <c r="G12">
-        <v>88.73999999999999</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="H12">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I12">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="J12">
-        <v>-0.89</v>
+        <v>-5.58</v>
       </c>
       <c r="K12">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="L12">
-        <v>16.94</v>
+        <v>10.14</v>
       </c>
       <c r="M12">
-        <v>8.23</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C13">
-        <v>5596</v>
+        <v>1486.9</v>
       </c>
       <c r="D13">
-        <v>5624.5</v>
+        <v>1493.9</v>
       </c>
       <c r="E13">
-        <v>28.5</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>90.40000000000001</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="G13">
-        <v>92</v>
+        <v>93.88</v>
       </c>
       <c r="H13">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="I13">
-        <v>-0.16</v>
+        <v>0.57</v>
       </c>
       <c r="J13">
-        <v>-1.6</v>
+        <v>-0.35</v>
       </c>
       <c r="K13">
-        <v>0.63</v>
+        <v>0.03</v>
       </c>
       <c r="L13">
-        <v>8.5</v>
+        <v>9.01</v>
       </c>
       <c r="M13">
-        <v>4.24</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C14">
-        <v>2830.9</v>
+        <v>3972.8</v>
       </c>
       <c r="D14">
-        <v>2849.7</v>
+        <v>3992.3</v>
       </c>
       <c r="E14">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="F14">
-        <v>85.75</v>
+        <v>80.8</v>
       </c>
       <c r="G14">
-        <v>90.7</v>
+        <v>91.05</v>
       </c>
       <c r="H14">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="I14">
         <v>0.49</v>
       </c>
       <c r="J14">
-        <v>-4.96</v>
+        <v>-10.25</v>
       </c>
       <c r="K14">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="L14">
-        <v>6.63</v>
+        <v>8.58</v>
       </c>
       <c r="M14">
-        <v>-1.19</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -15066,81 +15156,81 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15">
-        <v>5545</v>
+        <v>5596</v>
       </c>
       <c r="D15">
-        <v>5548.5</v>
+        <v>5624.5</v>
       </c>
       <c r="E15">
-        <v>3.5</v>
+        <v>28.5</v>
       </c>
       <c r="F15">
-        <v>87.81999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G15">
-        <v>89.72</v>
+        <v>92</v>
       </c>
       <c r="H15">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="I15">
-        <v>-1.1</v>
+        <v>-0.16</v>
       </c>
       <c r="J15">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="K15">
-        <v>1.41</v>
+        <v>0.63</v>
       </c>
       <c r="L15">
-        <v>6.08</v>
+        <v>8.5</v>
       </c>
       <c r="M15">
-        <v>-6.87</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C16">
-        <v>3972.8</v>
+        <v>1072.75</v>
       </c>
       <c r="D16">
-        <v>3992.3</v>
+        <v>1080.6</v>
       </c>
       <c r="E16">
-        <v>19.5</v>
+        <v>7.85</v>
       </c>
       <c r="F16">
-        <v>80.8</v>
+        <v>95.55</v>
       </c>
       <c r="G16">
-        <v>91.05</v>
+        <v>96.72</v>
       </c>
       <c r="H16">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="I16">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="J16">
-        <v>-10.25</v>
+        <v>-1.18</v>
       </c>
       <c r="K16">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="L16">
-        <v>8.58</v>
+        <v>7.39</v>
       </c>
       <c r="M16">
-        <v>0.6</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -15186,289 +15276,289 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="C18">
-        <v>154.52</v>
+        <v>2140.2</v>
       </c>
       <c r="D18">
-        <v>155.36</v>
+        <v>2152</v>
       </c>
       <c r="E18">
-        <v>0.84</v>
+        <v>11.8</v>
       </c>
       <c r="F18">
-        <v>79.42</v>
+        <v>88.22</v>
       </c>
       <c r="G18">
-        <v>85.59999999999999</v>
+        <v>93.44</v>
       </c>
       <c r="H18">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I18">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J18">
-        <v>-6.19</v>
+        <v>-5.22</v>
       </c>
       <c r="K18">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="L18">
-        <v>3.16</v>
+        <v>6.67</v>
       </c>
       <c r="M18">
-        <v>6.21</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C19">
-        <v>250.54</v>
+        <v>930.25</v>
       </c>
       <c r="D19">
-        <v>251.52</v>
+        <v>934.3</v>
       </c>
       <c r="E19">
-        <v>0.98</v>
+        <v>4.05</v>
       </c>
       <c r="F19">
-        <v>78.03</v>
+        <v>84.02</v>
       </c>
       <c r="G19">
-        <v>87.25</v>
+        <v>89.76000000000001</v>
       </c>
       <c r="H19">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="I19">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="J19">
-        <v>-9.220000000000001</v>
+        <v>-5.74</v>
       </c>
       <c r="K19">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="L19">
-        <v>4.61</v>
+        <v>6.63</v>
       </c>
       <c r="M19">
-        <v>-2.07</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="C20">
-        <v>1486.9</v>
+        <v>2830.9</v>
       </c>
       <c r="D20">
-        <v>1493.9</v>
+        <v>2849.7</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>18.8</v>
       </c>
       <c r="F20">
-        <v>93.54000000000001</v>
+        <v>85.75</v>
       </c>
       <c r="G20">
-        <v>93.88</v>
+        <v>90.7</v>
       </c>
       <c r="H20">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="I20">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="J20">
-        <v>-0.35</v>
+        <v>-4.96</v>
       </c>
       <c r="K20">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="L20">
-        <v>9.01</v>
+        <v>6.63</v>
       </c>
       <c r="M20">
-        <v>3.55</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="C21">
-        <v>141.09</v>
+        <v>5545</v>
       </c>
       <c r="D21">
-        <v>141.81</v>
+        <v>5548.5</v>
       </c>
       <c r="E21">
-        <v>0.72</v>
+        <v>3.5</v>
       </c>
       <c r="F21">
-        <v>93.11</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="G21">
-        <v>95.72</v>
+        <v>89.72</v>
       </c>
       <c r="H21">
-        <v>0.78</v>
+        <v>0.31</v>
       </c>
       <c r="I21">
-        <v>0.61</v>
+        <v>-1.1</v>
       </c>
       <c r="J21">
-        <v>-2.61</v>
+        <v>-1.9</v>
       </c>
       <c r="K21">
-        <v>0.17</v>
+        <v>1.41</v>
       </c>
       <c r="L21">
-        <v>14.33</v>
+        <v>6.08</v>
       </c>
       <c r="M21">
-        <v>4.34</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C22">
-        <v>930.25</v>
+        <v>250.54</v>
       </c>
       <c r="D22">
-        <v>934.3</v>
+        <v>251.52</v>
       </c>
       <c r="E22">
-        <v>4.05</v>
+        <v>0.98</v>
       </c>
       <c r="F22">
-        <v>84.02</v>
+        <v>78.03</v>
       </c>
       <c r="G22">
-        <v>89.76000000000001</v>
+        <v>87.25</v>
       </c>
       <c r="H22">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="I22">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="J22">
-        <v>-5.74</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="K22">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="L22">
-        <v>6.63</v>
+        <v>4.61</v>
       </c>
       <c r="M22">
-        <v>5.74</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C23">
-        <v>1918.7</v>
+        <v>154.52</v>
       </c>
       <c r="D23">
-        <v>1932.5</v>
+        <v>155.36</v>
       </c>
       <c r="E23">
-        <v>13.8</v>
+        <v>0.84</v>
       </c>
       <c r="F23">
-        <v>92.47</v>
+        <v>79.42</v>
       </c>
       <c r="G23">
-        <v>93.66</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H23">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="I23">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="J23">
-        <v>-1.19</v>
+        <v>-6.19</v>
       </c>
       <c r="K23">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="L23">
-        <v>0.39</v>
+        <v>3.16</v>
       </c>
       <c r="M23">
-        <v>6.44</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>1246.3</v>
+        <v>7510</v>
       </c>
       <c r="D24">
-        <v>1252.2</v>
+        <v>7559.5</v>
       </c>
       <c r="E24">
-        <v>5.9</v>
+        <v>49.5</v>
       </c>
       <c r="F24">
-        <v>87.27</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="G24">
-        <v>92.84999999999999</v>
+        <v>90.88</v>
       </c>
       <c r="H24">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="I24">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="J24">
-        <v>-5.58</v>
+        <v>-13.08</v>
       </c>
       <c r="K24">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="L24">
-        <v>10.14</v>
+        <v>3.07</v>
       </c>
       <c r="M24">
-        <v>1.6</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -15514,25 +15604,25 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C26">
-        <v>2090.2</v>
+        <v>1918.7</v>
       </c>
       <c r="D26">
-        <v>2099</v>
+        <v>1932.5</v>
       </c>
       <c r="E26">
-        <v>8.800000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="F26">
-        <v>87.31999999999999</v>
+        <v>92.47</v>
       </c>
       <c r="G26">
-        <v>89.98999999999999</v>
+        <v>93.66</v>
       </c>
       <c r="H26">
         <v>0.67</v>
@@ -15541,16 +15631,16 @@
         <v>0.51</v>
       </c>
       <c r="J26">
-        <v>-2.67</v>
+        <v>-1.19</v>
       </c>
       <c r="K26">
         <v>0.16</v>
       </c>
       <c r="L26">
-        <v>11.28</v>
+        <v>0.39</v>
       </c>
       <c r="M26">
-        <v>3.42</v>
+        <v>6.44</v>
       </c>
     </row>
   </sheetData>
@@ -15604,16 +15694,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -15745,84 +15853,84 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C8">
-        <v>132.16</v>
+        <v>6842</v>
       </c>
       <c r="D8">
-        <v>132.31</v>
+        <v>6866</v>
       </c>
       <c r="E8">
-        <v>0.15</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>91.45</v>
+        <v>91.23</v>
       </c>
       <c r="G8">
-        <v>93.44</v>
+        <v>92.41</v>
       </c>
       <c r="H8">
-        <v>0.23</v>
+        <v>0.58</v>
       </c>
       <c r="I8">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="J8">
-        <v>-1.99</v>
+        <v>-1.18</v>
       </c>
       <c r="K8">
-        <v>-0.14</v>
+        <v>-0.03</v>
       </c>
       <c r="L8">
-        <v>-1.73</v>
+        <v>-2.98</v>
       </c>
       <c r="M8">
-        <v>0.07000000000000001</v>
+        <v>-15.56</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C9">
-        <v>6842</v>
+        <v>132.16</v>
       </c>
       <c r="D9">
-        <v>6866</v>
+        <v>132.31</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>0.15</v>
       </c>
       <c r="F9">
-        <v>91.23</v>
+        <v>91.45</v>
       </c>
       <c r="G9">
-        <v>92.41</v>
+        <v>93.44</v>
       </c>
       <c r="H9">
-        <v>0.58</v>
+        <v>0.23</v>
       </c>
       <c r="I9">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="J9">
-        <v>-1.18</v>
+        <v>-1.99</v>
       </c>
       <c r="K9">
-        <v>-0.03</v>
+        <v>-0.14</v>
       </c>
       <c r="L9">
-        <v>-2.98</v>
+        <v>-1.73</v>
       </c>
       <c r="M9">
-        <v>-15.56</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
